--- a/Evaluaciones CADA 2022-2/Planilla de Valoración 2022.xlsx
+++ b/Evaluaciones CADA 2022-2/Planilla de Valoración 2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Systems\NetBeansProjects\Evaluaciones CADA 2022-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C5B182-FA55-42C2-97DD-E900A5A6256F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD47E9D1-C12D-485D-9562-F62B6AB74749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P. Valoración 7°,8°,9°" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="220">
   <si>
     <t xml:space="preserve">Colegio </t>
   </si>
@@ -682,6 +682,15 @@
   </si>
   <si>
     <t>Arevalo Villagra, Pablo Daniel</t>
+  </si>
+  <si>
+    <t>Mañana</t>
+  </si>
+  <si>
+    <t>Jonathan Elias Leonardi Sauer</t>
+  </si>
+  <si>
+    <t>2da. Etapa</t>
   </si>
 </sst>
 </file>
@@ -954,7 +963,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -993,54 +1002,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1061,22 +1042,72 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2064,78 +2095,78 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="40" t="s">
+      <c r="A6" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="31"/>
     </row>
     <row r="7" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="26"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="51"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="3" t="s">
         <v>1</v>
       </c>
@@ -2151,128 +2182,128 @@
       <c r="J7" s="3">
         <v>2022</v>
       </c>
-      <c r="K7" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="28"/>
+      <c r="K7" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="31"/>
     </row>
     <row r="8" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="28"/>
+      <c r="E8" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="31"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="26"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="28"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="31"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="29" t="s">
+      <c r="B10" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="42" t="s">
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="42" t="s">
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="38" t="s">
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="Q10" s="29" t="s">
+      <c r="Q10" s="42" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="29"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="42"/>
     </row>
     <row r="12" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="4" t="s">
         <v>17</v>
       </c>
@@ -2309,8 +2340,8 @@
       <c r="O12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="30"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="43"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
@@ -4037,65 +4068,65 @@
       <c r="B45" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="24"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="24"/>
-      <c r="P45" s="24"/>
-      <c r="Q45" s="24"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="45"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="45"/>
+      <c r="O45" s="45"/>
+      <c r="P45" s="45"/>
+      <c r="Q45" s="45"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="24"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="24"/>
-      <c r="Q46" s="24"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="45"/>
+      <c r="J46" s="45"/>
+      <c r="K46" s="45"/>
+      <c r="L46" s="45"/>
+      <c r="M46" s="45"/>
+      <c r="N46" s="45"/>
+      <c r="O46" s="45"/>
+      <c r="P46" s="45"/>
+      <c r="Q46" s="45"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="24"/>
-      <c r="Q47" s="24"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="45"/>
+      <c r="L47" s="45"/>
+      <c r="M47" s="45"/>
+      <c r="N47" s="45"/>
+      <c r="O47" s="45"/>
+      <c r="P47" s="45"/>
+      <c r="Q47" s="45"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
@@ -4235,71 +4266,71 @@
       <c r="Q54" s="1"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="48"/>
-      <c r="B55" s="48"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="48"/>
-      <c r="J55" s="48"/>
-      <c r="K55" s="48"/>
-      <c r="L55" s="48"/>
-      <c r="M55" s="48"/>
-      <c r="N55" s="48"/>
-      <c r="O55" s="48"/>
-      <c r="P55" s="48"/>
-      <c r="Q55" s="48"/>
+      <c r="A55" s="24"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="24"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="24"/>
+      <c r="Q55" s="24"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="49"/>
-      <c r="B56" s="49"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="49"/>
-      <c r="J56" s="49"/>
-      <c r="K56" s="49"/>
-      <c r="L56" s="49"/>
-      <c r="M56" s="49"/>
-      <c r="N56" s="49"/>
-      <c r="O56" s="49"/>
-      <c r="P56" s="49"/>
-      <c r="Q56" s="49"/>
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="25"/>
+      <c r="O56" s="25"/>
+      <c r="P56" s="25"/>
+      <c r="Q56" s="25"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" s="26"/>
-      <c r="C57" s="40" t="s">
+      <c r="A57" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="27"/>
+      <c r="C57" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="40"/>
-      <c r="H57" s="40"/>
-      <c r="I57" s="40"/>
-      <c r="J57" s="40"/>
-      <c r="K57" s="41"/>
-      <c r="L57" s="27"/>
-      <c r="M57" s="27"/>
-      <c r="N57" s="27"/>
-      <c r="O57" s="27"/>
-      <c r="P57" s="27"/>
-      <c r="Q57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="30"/>
+      <c r="M57" s="30"/>
+      <c r="N57" s="30"/>
+      <c r="O57" s="30"/>
+      <c r="P57" s="30"/>
+      <c r="Q57" s="31"/>
     </row>
     <row r="58" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B58" s="26"/>
+      <c r="B58" s="27"/>
       <c r="C58" s="15" t="s">
         <v>38</v>
       </c>
@@ -4324,48 +4355,48 @@
       <c r="J58" s="3">
         <v>2022</v>
       </c>
-      <c r="K58" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="L58" s="27"/>
-      <c r="M58" s="27"/>
-      <c r="N58" s="27"/>
-      <c r="O58" s="27"/>
-      <c r="P58" s="27"/>
-      <c r="Q58" s="28"/>
+      <c r="K58" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="L58" s="30"/>
+      <c r="M58" s="30"/>
+      <c r="N58" s="30"/>
+      <c r="O58" s="30"/>
+      <c r="P58" s="30"/>
+      <c r="Q58" s="31"/>
     </row>
     <row r="59" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B59" s="26"/>
+      <c r="B59" s="27"/>
       <c r="C59" s="15" t="s">
         <v>42</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E59" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="27"/>
-      <c r="L59" s="27"/>
-      <c r="M59" s="27"/>
-      <c r="N59" s="27"/>
-      <c r="O59" s="27"/>
-      <c r="P59" s="27"/>
-      <c r="Q59" s="28"/>
+      <c r="E59" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="30"/>
+      <c r="M59" s="30"/>
+      <c r="N59" s="30"/>
+      <c r="O59" s="30"/>
+      <c r="P59" s="30"/>
+      <c r="Q59" s="31"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B60" s="26"/>
+      <c r="B60" s="27"/>
       <c r="C60" s="3" t="s">
         <v>1</v>
       </c>
@@ -4375,79 +4406,79 @@
       <c r="E60" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F60" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="27"/>
-      <c r="L60" s="27"/>
-      <c r="M60" s="27"/>
-      <c r="N60" s="27"/>
-      <c r="O60" s="27"/>
-      <c r="P60" s="27"/>
-      <c r="Q60" s="28"/>
+      <c r="F60" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="30"/>
+      <c r="L60" s="30"/>
+      <c r="M60" s="30"/>
+      <c r="N60" s="30"/>
+      <c r="O60" s="30"/>
+      <c r="P60" s="30"/>
+      <c r="Q60" s="31"/>
     </row>
     <row r="61" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="29" t="s">
+      <c r="A61" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" s="29" t="s">
+      <c r="B61" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="32" t="s">
+      <c r="D61" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="32" t="s">
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="48"/>
+      <c r="H61" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="I61" s="33"/>
-      <c r="J61" s="33"/>
-      <c r="K61" s="34"/>
-      <c r="L61" s="32" t="s">
+      <c r="I61" s="47"/>
+      <c r="J61" s="47"/>
+      <c r="K61" s="48"/>
+      <c r="L61" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="M61" s="33"/>
-      <c r="N61" s="33"/>
-      <c r="O61" s="34"/>
-      <c r="P61" s="38" t="s">
+      <c r="M61" s="47"/>
+      <c r="N61" s="47"/>
+      <c r="O61" s="48"/>
+      <c r="P61" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="Q61" s="29" t="s">
+      <c r="Q61" s="42" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="29"/>
-      <c r="B62" s="29"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="36"/>
-      <c r="K62" s="37"/>
-      <c r="L62" s="35"/>
-      <c r="M62" s="36"/>
-      <c r="N62" s="36"/>
-      <c r="O62" s="37"/>
-      <c r="P62" s="38"/>
-      <c r="Q62" s="29"/>
+      <c r="A62" s="42"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="51"/>
+      <c r="H62" s="49"/>
+      <c r="I62" s="50"/>
+      <c r="J62" s="50"/>
+      <c r="K62" s="51"/>
+      <c r="L62" s="49"/>
+      <c r="M62" s="50"/>
+      <c r="N62" s="50"/>
+      <c r="O62" s="51"/>
+      <c r="P62" s="40"/>
+      <c r="Q62" s="42"/>
     </row>
     <row r="63" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="30"/>
-      <c r="B63" s="30"/>
-      <c r="C63" s="31"/>
+      <c r="A63" s="43"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="44"/>
       <c r="D63" s="4" t="s">
         <v>17</v>
       </c>
@@ -4484,8 +4515,8 @@
       <c r="O63" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="P63" s="39"/>
-      <c r="Q63" s="30"/>
+      <c r="P63" s="41"/>
+      <c r="Q63" s="43"/>
     </row>
     <row r="64" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
@@ -6146,65 +6177,65 @@
       <c r="B95" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="24" t="s">
+      <c r="C95" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D95" s="24"/>
-      <c r="E95" s="24"/>
-      <c r="F95" s="24"/>
-      <c r="G95" s="24"/>
-      <c r="H95" s="24"/>
-      <c r="I95" s="24"/>
-      <c r="J95" s="24"/>
-      <c r="K95" s="24"/>
-      <c r="L95" s="24"/>
-      <c r="M95" s="24"/>
-      <c r="N95" s="24"/>
-      <c r="O95" s="24"/>
-      <c r="P95" s="24"/>
-      <c r="Q95" s="24"/>
+      <c r="D95" s="45"/>
+      <c r="E95" s="45"/>
+      <c r="F95" s="45"/>
+      <c r="G95" s="45"/>
+      <c r="H95" s="45"/>
+      <c r="I95" s="45"/>
+      <c r="J95" s="45"/>
+      <c r="K95" s="45"/>
+      <c r="L95" s="45"/>
+      <c r="M95" s="45"/>
+      <c r="N95" s="45"/>
+      <c r="O95" s="45"/>
+      <c r="P95" s="45"/>
+      <c r="Q95" s="45"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C96" s="24"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="24"/>
-      <c r="H96" s="24"/>
-      <c r="I96" s="24"/>
-      <c r="J96" s="24"/>
-      <c r="K96" s="24"/>
-      <c r="L96" s="24"/>
-      <c r="M96" s="24"/>
-      <c r="N96" s="24"/>
-      <c r="O96" s="24"/>
-      <c r="P96" s="24"/>
-      <c r="Q96" s="24"/>
+      <c r="C96" s="45"/>
+      <c r="D96" s="45"/>
+      <c r="E96" s="45"/>
+      <c r="F96" s="45"/>
+      <c r="G96" s="45"/>
+      <c r="H96" s="45"/>
+      <c r="I96" s="45"/>
+      <c r="J96" s="45"/>
+      <c r="K96" s="45"/>
+      <c r="L96" s="45"/>
+      <c r="M96" s="45"/>
+      <c r="N96" s="45"/>
+      <c r="O96" s="45"/>
+      <c r="P96" s="45"/>
+      <c r="Q96" s="45"/>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C97" s="24"/>
-      <c r="D97" s="24"/>
-      <c r="E97" s="24"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="24"/>
-      <c r="H97" s="24"/>
-      <c r="I97" s="24"/>
-      <c r="J97" s="24"/>
-      <c r="K97" s="24"/>
-      <c r="L97" s="24"/>
-      <c r="M97" s="24"/>
-      <c r="N97" s="24"/>
-      <c r="O97" s="24"/>
-      <c r="P97" s="24"/>
-      <c r="Q97" s="24"/>
+      <c r="C97" s="45"/>
+      <c r="D97" s="45"/>
+      <c r="E97" s="45"/>
+      <c r="F97" s="45"/>
+      <c r="G97" s="45"/>
+      <c r="H97" s="45"/>
+      <c r="I97" s="45"/>
+      <c r="J97" s="45"/>
+      <c r="K97" s="45"/>
+      <c r="L97" s="45"/>
+      <c r="M97" s="45"/>
+      <c r="N97" s="45"/>
+      <c r="O97" s="45"/>
+      <c r="P97" s="45"/>
+      <c r="Q97" s="45"/>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
@@ -6268,33 +6299,33 @@
       <c r="Q100" s="1"/>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A104" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B104" s="26"/>
-      <c r="C104" s="40" t="s">
+      <c r="A104" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" s="27"/>
+      <c r="C104" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D104" s="40"/>
-      <c r="E104" s="40"/>
-      <c r="F104" s="40"/>
-      <c r="G104" s="40"/>
-      <c r="H104" s="40"/>
-      <c r="I104" s="40"/>
-      <c r="J104" s="40"/>
-      <c r="K104" s="41"/>
-      <c r="L104" s="27"/>
-      <c r="M104" s="27"/>
-      <c r="N104" s="27"/>
-      <c r="O104" s="27"/>
-      <c r="P104" s="27"/>
-      <c r="Q104" s="28"/>
+      <c r="D104" s="28"/>
+      <c r="E104" s="28"/>
+      <c r="F104" s="28"/>
+      <c r="G104" s="28"/>
+      <c r="H104" s="28"/>
+      <c r="I104" s="28"/>
+      <c r="J104" s="28"/>
+      <c r="K104" s="29"/>
+      <c r="L104" s="30"/>
+      <c r="M104" s="30"/>
+      <c r="N104" s="30"/>
+      <c r="O104" s="30"/>
+      <c r="P104" s="30"/>
+      <c r="Q104" s="31"/>
     </row>
     <row r="105" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A105" s="25" t="s">
+      <c r="A105" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B105" s="26"/>
+      <c r="B105" s="27"/>
       <c r="C105" s="15" t="s">
         <v>38</v>
       </c>
@@ -6319,48 +6350,48 @@
       <c r="J105" s="3">
         <v>2022</v>
       </c>
-      <c r="K105" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="L105" s="27"/>
-      <c r="M105" s="27"/>
-      <c r="N105" s="27"/>
-      <c r="O105" s="27"/>
-      <c r="P105" s="27"/>
-      <c r="Q105" s="28"/>
+      <c r="K105" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="L105" s="30"/>
+      <c r="M105" s="30"/>
+      <c r="N105" s="30"/>
+      <c r="O105" s="30"/>
+      <c r="P105" s="30"/>
+      <c r="Q105" s="31"/>
     </row>
     <row r="106" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A106" s="25" t="s">
+      <c r="A106" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B106" s="26"/>
+      <c r="B106" s="27"/>
       <c r="C106" s="15" t="s">
         <v>41</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E106" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="F106" s="27"/>
-      <c r="G106" s="27"/>
-      <c r="H106" s="27"/>
-      <c r="I106" s="27"/>
-      <c r="J106" s="27"/>
-      <c r="K106" s="27"/>
-      <c r="L106" s="27"/>
-      <c r="M106" s="27"/>
-      <c r="N106" s="27"/>
-      <c r="O106" s="27"/>
-      <c r="P106" s="27"/>
-      <c r="Q106" s="28"/>
+      <c r="E106" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F106" s="30"/>
+      <c r="G106" s="30"/>
+      <c r="H106" s="30"/>
+      <c r="I106" s="30"/>
+      <c r="J106" s="30"/>
+      <c r="K106" s="30"/>
+      <c r="L106" s="30"/>
+      <c r="M106" s="30"/>
+      <c r="N106" s="30"/>
+      <c r="O106" s="30"/>
+      <c r="P106" s="30"/>
+      <c r="Q106" s="31"/>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A107" s="25" t="s">
+      <c r="A107" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B107" s="26"/>
+      <c r="B107" s="27"/>
       <c r="C107" s="3" t="s">
         <v>1</v>
       </c>
@@ -6370,79 +6401,79 @@
       <c r="E107" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F107" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="G107" s="27"/>
-      <c r="H107" s="27"/>
-      <c r="I107" s="27"/>
-      <c r="J107" s="27"/>
-      <c r="K107" s="27"/>
-      <c r="L107" s="27"/>
-      <c r="M107" s="27"/>
-      <c r="N107" s="27"/>
-      <c r="O107" s="27"/>
-      <c r="P107" s="27"/>
-      <c r="Q107" s="28"/>
+      <c r="F107" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="G107" s="30"/>
+      <c r="H107" s="30"/>
+      <c r="I107" s="30"/>
+      <c r="J107" s="30"/>
+      <c r="K107" s="30"/>
+      <c r="L107" s="30"/>
+      <c r="M107" s="30"/>
+      <c r="N107" s="30"/>
+      <c r="O107" s="30"/>
+      <c r="P107" s="30"/>
+      <c r="Q107" s="31"/>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A108" s="29" t="s">
+      <c r="A108" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B108" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C108" s="29" t="s">
+      <c r="B108" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D108" s="32" t="s">
+      <c r="D108" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="E108" s="33"/>
-      <c r="F108" s="33"/>
-      <c r="G108" s="34"/>
-      <c r="H108" s="32" t="s">
+      <c r="E108" s="47"/>
+      <c r="F108" s="47"/>
+      <c r="G108" s="48"/>
+      <c r="H108" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="I108" s="33"/>
-      <c r="J108" s="33"/>
-      <c r="K108" s="34"/>
-      <c r="L108" s="32" t="s">
+      <c r="I108" s="47"/>
+      <c r="J108" s="47"/>
+      <c r="K108" s="48"/>
+      <c r="L108" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="M108" s="33"/>
-      <c r="N108" s="33"/>
-      <c r="O108" s="34"/>
-      <c r="P108" s="38" t="s">
+      <c r="M108" s="47"/>
+      <c r="N108" s="47"/>
+      <c r="O108" s="48"/>
+      <c r="P108" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="Q108" s="29" t="s">
+      <c r="Q108" s="42" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A109" s="29"/>
-      <c r="B109" s="29"/>
-      <c r="C109" s="29"/>
-      <c r="D109" s="35"/>
-      <c r="E109" s="36"/>
-      <c r="F109" s="36"/>
-      <c r="G109" s="37"/>
-      <c r="H109" s="35"/>
-      <c r="I109" s="36"/>
-      <c r="J109" s="36"/>
-      <c r="K109" s="37"/>
-      <c r="L109" s="35"/>
-      <c r="M109" s="36"/>
-      <c r="N109" s="36"/>
-      <c r="O109" s="37"/>
-      <c r="P109" s="38"/>
-      <c r="Q109" s="29"/>
+      <c r="A109" s="42"/>
+      <c r="B109" s="42"/>
+      <c r="C109" s="42"/>
+      <c r="D109" s="49"/>
+      <c r="E109" s="50"/>
+      <c r="F109" s="50"/>
+      <c r="G109" s="51"/>
+      <c r="H109" s="49"/>
+      <c r="I109" s="50"/>
+      <c r="J109" s="50"/>
+      <c r="K109" s="51"/>
+      <c r="L109" s="49"/>
+      <c r="M109" s="50"/>
+      <c r="N109" s="50"/>
+      <c r="O109" s="51"/>
+      <c r="P109" s="40"/>
+      <c r="Q109" s="42"/>
     </row>
     <row r="110" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="30"/>
-      <c r="B110" s="30"/>
-      <c r="C110" s="31"/>
+      <c r="A110" s="43"/>
+      <c r="B110" s="43"/>
+      <c r="C110" s="44"/>
       <c r="D110" s="4" t="s">
         <v>17</v>
       </c>
@@ -6479,8 +6510,8 @@
       <c r="O110" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="P110" s="39"/>
-      <c r="Q110" s="30"/>
+      <c r="P110" s="41"/>
+      <c r="Q110" s="43"/>
     </row>
     <row r="111" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
@@ -8486,65 +8517,65 @@
       <c r="B148" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C148" s="24" t="s">
+      <c r="C148" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D148" s="24"/>
-      <c r="E148" s="24"/>
-      <c r="F148" s="24"/>
-      <c r="G148" s="24"/>
-      <c r="H148" s="24"/>
-      <c r="I148" s="24"/>
-      <c r="J148" s="24"/>
-      <c r="K148" s="24"/>
-      <c r="L148" s="24"/>
-      <c r="M148" s="24"/>
-      <c r="N148" s="24"/>
-      <c r="O148" s="24"/>
-      <c r="P148" s="24"/>
-      <c r="Q148" s="24"/>
+      <c r="D148" s="45"/>
+      <c r="E148" s="45"/>
+      <c r="F148" s="45"/>
+      <c r="G148" s="45"/>
+      <c r="H148" s="45"/>
+      <c r="I148" s="45"/>
+      <c r="J148" s="45"/>
+      <c r="K148" s="45"/>
+      <c r="L148" s="45"/>
+      <c r="M148" s="45"/>
+      <c r="N148" s="45"/>
+      <c r="O148" s="45"/>
+      <c r="P148" s="45"/>
+      <c r="Q148" s="45"/>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C149" s="24"/>
-      <c r="D149" s="24"/>
-      <c r="E149" s="24"/>
-      <c r="F149" s="24"/>
-      <c r="G149" s="24"/>
-      <c r="H149" s="24"/>
-      <c r="I149" s="24"/>
-      <c r="J149" s="24"/>
-      <c r="K149" s="24"/>
-      <c r="L149" s="24"/>
-      <c r="M149" s="24"/>
-      <c r="N149" s="24"/>
-      <c r="O149" s="24"/>
-      <c r="P149" s="24"/>
-      <c r="Q149" s="24"/>
+      <c r="C149" s="45"/>
+      <c r="D149" s="45"/>
+      <c r="E149" s="45"/>
+      <c r="F149" s="45"/>
+      <c r="G149" s="45"/>
+      <c r="H149" s="45"/>
+      <c r="I149" s="45"/>
+      <c r="J149" s="45"/>
+      <c r="K149" s="45"/>
+      <c r="L149" s="45"/>
+      <c r="M149" s="45"/>
+      <c r="N149" s="45"/>
+      <c r="O149" s="45"/>
+      <c r="P149" s="45"/>
+      <c r="Q149" s="45"/>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C150" s="24"/>
-      <c r="D150" s="24"/>
-      <c r="E150" s="24"/>
-      <c r="F150" s="24"/>
-      <c r="G150" s="24"/>
-      <c r="H150" s="24"/>
-      <c r="I150" s="24"/>
-      <c r="J150" s="24"/>
-      <c r="K150" s="24"/>
-      <c r="L150" s="24"/>
-      <c r="M150" s="24"/>
-      <c r="N150" s="24"/>
-      <c r="O150" s="24"/>
-      <c r="P150" s="24"/>
-      <c r="Q150" s="24"/>
+      <c r="C150" s="45"/>
+      <c r="D150" s="45"/>
+      <c r="E150" s="45"/>
+      <c r="F150" s="45"/>
+      <c r="G150" s="45"/>
+      <c r="H150" s="45"/>
+      <c r="I150" s="45"/>
+      <c r="J150" s="45"/>
+      <c r="K150" s="45"/>
+      <c r="L150" s="45"/>
+      <c r="M150" s="45"/>
+      <c r="N150" s="45"/>
+      <c r="O150" s="45"/>
+      <c r="P150" s="45"/>
+      <c r="Q150" s="45"/>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
@@ -8609,30 +8640,24 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="A4:Q5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:Q8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:Q9"/>
-    <mergeCell ref="L10:O11"/>
-    <mergeCell ref="P10:P12"/>
-    <mergeCell ref="Q10:Q12"/>
-    <mergeCell ref="A55:Q56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:K57"/>
-    <mergeCell ref="L57:Q57"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:G11"/>
-    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="C148:Q150"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="E106:Q106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="F107:Q107"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="D108:G109"/>
+    <mergeCell ref="H108:K109"/>
+    <mergeCell ref="L108:O109"/>
+    <mergeCell ref="P108:P110"/>
+    <mergeCell ref="Q108:Q110"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:K104"/>
+    <mergeCell ref="L104:Q104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="K105:Q105"/>
     <mergeCell ref="P61:P63"/>
     <mergeCell ref="Q61:Q63"/>
     <mergeCell ref="C95:Q97"/>
@@ -8649,24 +8674,30 @@
     <mergeCell ref="E59:Q59"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="F60:Q60"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:K104"/>
-    <mergeCell ref="L104:Q104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="K105:Q105"/>
-    <mergeCell ref="C148:Q150"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="E106:Q106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="F107:Q107"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="D108:G109"/>
-    <mergeCell ref="H108:K109"/>
-    <mergeCell ref="L108:O109"/>
-    <mergeCell ref="P108:P110"/>
-    <mergeCell ref="Q108:Q110"/>
+    <mergeCell ref="L10:O11"/>
+    <mergeCell ref="P10:P12"/>
+    <mergeCell ref="Q10:Q12"/>
+    <mergeCell ref="A55:Q56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:K57"/>
+    <mergeCell ref="L57:Q57"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:G11"/>
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:Q8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:Q9"/>
+    <mergeCell ref="A4:Q5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="K7:Q7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8678,8 +8709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q125"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8748,78 +8779,78 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="40" t="s">
+      <c r="A6" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="31"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="26"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="51"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="3" t="s">
         <v>1</v>
       </c>
@@ -8835,128 +8866,128 @@
       <c r="J7" s="3">
         <v>2022</v>
       </c>
-      <c r="K7" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="28"/>
+      <c r="K7" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="31"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="4" t="s">
         <v>130</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="28"/>
+      <c r="E8" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="31"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="26"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="28"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="31"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="29" t="s">
+      <c r="B10" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="32" t="s">
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="32" t="s">
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="38" t="s">
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="Q10" s="29" t="s">
+      <c r="Q10" s="42" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="29"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="42"/>
     </row>
     <row r="12" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="4" t="s">
         <v>17</v>
       </c>
@@ -8993,8 +9024,8 @@
       <c r="O12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="30"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="43"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
@@ -10319,71 +10350,71 @@
       <c r="Q43" s="1"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="48"/>
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="48"/>
-      <c r="N44" s="48"/>
-      <c r="O44" s="48"/>
-      <c r="P44" s="48"/>
-      <c r="Q44" s="48"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="24"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
-      <c r="K45" s="49"/>
-      <c r="L45" s="49"/>
-      <c r="M45" s="49"/>
-      <c r="N45" s="49"/>
-      <c r="O45" s="49"/>
-      <c r="P45" s="49"/>
-      <c r="Q45" s="49"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="25"/>
+      <c r="O45" s="25"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="25"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="26"/>
-      <c r="C46" s="40" t="s">
+      <c r="A46" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="27"/>
+      <c r="C46" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="41"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="27"/>
-      <c r="P46" s="27"/>
-      <c r="Q46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="30"/>
+      <c r="P46" s="30"/>
+      <c r="Q46" s="31"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="26"/>
+      <c r="B47" s="27"/>
       <c r="C47" s="4" t="s">
         <v>132</v>
       </c>
@@ -10408,48 +10439,48 @@
       <c r="J47" s="3">
         <v>2022</v>
       </c>
-      <c r="K47" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="27"/>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="28"/>
+      <c r="K47" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="L47" s="30"/>
+      <c r="M47" s="30"/>
+      <c r="N47" s="30"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="30"/>
+      <c r="Q47" s="31"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="26"/>
+      <c r="B48" s="27"/>
       <c r="C48" s="4" t="s">
         <v>131</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="27"/>
-      <c r="N48" s="27"/>
-      <c r="O48" s="27"/>
-      <c r="P48" s="27"/>
-      <c r="Q48" s="28"/>
+      <c r="E48" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="30"/>
+      <c r="P48" s="30"/>
+      <c r="Q48" s="31"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="26"/>
+      <c r="B49" s="27"/>
       <c r="C49" s="3" t="s">
         <v>1</v>
       </c>
@@ -10459,79 +10490,79 @@
       <c r="E49" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F49" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="27"/>
-      <c r="P49" s="27"/>
-      <c r="Q49" s="28"/>
+      <c r="F49" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="30"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="30"/>
+      <c r="Q49" s="31"/>
     </row>
     <row r="50" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="29" t="s">
+      <c r="A50" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="29" t="s">
+      <c r="B50" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="32" t="s">
+      <c r="D50" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="32" t="s">
+      <c r="E50" s="47"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="I50" s="33"/>
-      <c r="J50" s="33"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="32" t="s">
+      <c r="I50" s="47"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="48"/>
+      <c r="L50" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="M50" s="33"/>
-      <c r="N50" s="33"/>
-      <c r="O50" s="34"/>
-      <c r="P50" s="38" t="s">
+      <c r="M50" s="47"/>
+      <c r="N50" s="47"/>
+      <c r="O50" s="48"/>
+      <c r="P50" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="Q50" s="29" t="s">
+      <c r="Q50" s="42" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="29"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="36"/>
-      <c r="J51" s="36"/>
-      <c r="K51" s="37"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="36"/>
-      <c r="N51" s="36"/>
-      <c r="O51" s="37"/>
-      <c r="P51" s="38"/>
-      <c r="Q51" s="29"/>
+      <c r="A51" s="42"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="51"/>
+      <c r="L51" s="49"/>
+      <c r="M51" s="50"/>
+      <c r="N51" s="50"/>
+      <c r="O51" s="51"/>
+      <c r="P51" s="40"/>
+      <c r="Q51" s="42"/>
     </row>
     <row r="52" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="30"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="31"/>
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="44"/>
       <c r="D52" s="4" t="s">
         <v>17</v>
       </c>
@@ -10568,8 +10599,8 @@
       <c r="O52" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="P52" s="39"/>
-      <c r="Q52" s="30"/>
+      <c r="P52" s="41"/>
+      <c r="Q52" s="43"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
@@ -11818,42 +11849,40 @@
       <c r="Q79" s="1"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A82" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B82" s="26"/>
-      <c r="C82" s="40" t="s">
+      <c r="A82" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="27"/>
+      <c r="C82" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D82" s="40"/>
-      <c r="E82" s="40"/>
-      <c r="F82" s="40"/>
-      <c r="G82" s="40"/>
-      <c r="H82" s="40"/>
-      <c r="I82" s="40"/>
-      <c r="J82" s="40"/>
-      <c r="K82" s="41"/>
-      <c r="L82" s="27"/>
-      <c r="M82" s="27"/>
-      <c r="N82" s="27"/>
-      <c r="O82" s="27"/>
-      <c r="P82" s="27"/>
-      <c r="Q82" s="28"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="28"/>
+      <c r="G82" s="28"/>
+      <c r="H82" s="28"/>
+      <c r="I82" s="28"/>
+      <c r="J82" s="28"/>
+      <c r="K82" s="29"/>
+      <c r="L82" s="30"/>
+      <c r="M82" s="30"/>
+      <c r="N82" s="30"/>
+      <c r="O82" s="30"/>
+      <c r="P82" s="30"/>
+      <c r="Q82" s="31"/>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A83" s="25" t="s">
+      <c r="A83" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="26"/>
+      <c r="B83" s="27"/>
       <c r="C83" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="D83" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="E83" s="33"/>
       <c r="F83" s="3" t="s">
         <v>1</v>
       </c>
@@ -11869,130 +11898,128 @@
       <c r="J83" s="3">
         <v>2022</v>
       </c>
-      <c r="K83" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="L83" s="27"/>
-      <c r="M83" s="27"/>
-      <c r="N83" s="27"/>
-      <c r="O83" s="27"/>
-      <c r="P83" s="27"/>
-      <c r="Q83" s="28"/>
+      <c r="K83" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="L83" s="30"/>
+      <c r="M83" s="30"/>
+      <c r="N83" s="30"/>
+      <c r="O83" s="30"/>
+      <c r="P83" s="30"/>
+      <c r="Q83" s="31"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A84" s="25" t="s">
+      <c r="A84" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B84" s="26"/>
+      <c r="B84" s="27"/>
       <c r="C84" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E84" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="F84" s="27"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="27"/>
-      <c r="I84" s="27"/>
-      <c r="J84" s="27"/>
-      <c r="K84" s="27"/>
-      <c r="L84" s="27"/>
-      <c r="M84" s="27"/>
-      <c r="N84" s="27"/>
-      <c r="O84" s="27"/>
-      <c r="P84" s="27"/>
-      <c r="Q84" s="28"/>
+      <c r="E84" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="F84" s="53"/>
+      <c r="G84" s="53"/>
+      <c r="H84" s="53"/>
+      <c r="I84" s="53"/>
+      <c r="J84" s="53"/>
+      <c r="K84" s="53"/>
+      <c r="L84" s="53"/>
+      <c r="M84" s="53"/>
+      <c r="N84" s="53"/>
+      <c r="O84" s="53"/>
+      <c r="P84" s="53"/>
+      <c r="Q84" s="54"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A85" s="25" t="s">
+      <c r="A85" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B85" s="26"/>
+      <c r="B85" s="27"/>
       <c r="C85" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E85" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F85" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="G85" s="27"/>
-      <c r="H85" s="27"/>
-      <c r="I85" s="27"/>
-      <c r="J85" s="27"/>
-      <c r="K85" s="27"/>
-      <c r="L85" s="27"/>
-      <c r="M85" s="27"/>
-      <c r="N85" s="27"/>
-      <c r="O85" s="27"/>
-      <c r="P85" s="27"/>
-      <c r="Q85" s="28"/>
+      <c r="E85" s="55" t="s">
+        <v>218</v>
+      </c>
+      <c r="F85" s="56"/>
+      <c r="G85" s="56"/>
+      <c r="H85" s="56"/>
+      <c r="I85" s="56"/>
+      <c r="J85" s="56"/>
+      <c r="K85" s="56"/>
+      <c r="L85" s="56"/>
+      <c r="M85" s="56"/>
+      <c r="N85" s="56"/>
+      <c r="O85" s="56"/>
+      <c r="P85" s="56"/>
+      <c r="Q85" s="57"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A86" s="29" t="s">
+      <c r="A86" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B86" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C86" s="29" t="s">
+      <c r="B86" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="32" t="s">
+      <c r="D86" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="E86" s="33"/>
-      <c r="F86" s="33"/>
-      <c r="G86" s="34"/>
-      <c r="H86" s="32" t="s">
+      <c r="E86" s="47"/>
+      <c r="F86" s="47"/>
+      <c r="G86" s="48"/>
+      <c r="H86" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="I86" s="33"/>
-      <c r="J86" s="33"/>
-      <c r="K86" s="34"/>
-      <c r="L86" s="32" t="s">
+      <c r="I86" s="47"/>
+      <c r="J86" s="47"/>
+      <c r="K86" s="48"/>
+      <c r="L86" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="M86" s="33"/>
-      <c r="N86" s="33"/>
-      <c r="O86" s="34"/>
-      <c r="P86" s="38" t="s">
+      <c r="M86" s="47"/>
+      <c r="N86" s="47"/>
+      <c r="O86" s="48"/>
+      <c r="P86" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="Q86" s="29" t="s">
+      <c r="Q86" s="42" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A87" s="29"/>
-      <c r="B87" s="29"/>
-      <c r="C87" s="29"/>
-      <c r="D87" s="35"/>
-      <c r="E87" s="36"/>
-      <c r="F87" s="36"/>
-      <c r="G87" s="37"/>
-      <c r="H87" s="35"/>
-      <c r="I87" s="36"/>
-      <c r="J87" s="36"/>
-      <c r="K87" s="37"/>
-      <c r="L87" s="35"/>
-      <c r="M87" s="36"/>
-      <c r="N87" s="36"/>
-      <c r="O87" s="37"/>
-      <c r="P87" s="38"/>
-      <c r="Q87" s="29"/>
+      <c r="A87" s="42"/>
+      <c r="B87" s="42"/>
+      <c r="C87" s="42"/>
+      <c r="D87" s="49"/>
+      <c r="E87" s="50"/>
+      <c r="F87" s="50"/>
+      <c r="G87" s="51"/>
+      <c r="H87" s="49"/>
+      <c r="I87" s="50"/>
+      <c r="J87" s="50"/>
+      <c r="K87" s="51"/>
+      <c r="L87" s="49"/>
+      <c r="M87" s="50"/>
+      <c r="N87" s="50"/>
+      <c r="O87" s="51"/>
+      <c r="P87" s="40"/>
+      <c r="Q87" s="42"/>
     </row>
     <row r="88" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="30"/>
-      <c r="B88" s="30"/>
-      <c r="C88" s="31"/>
+      <c r="A88" s="43"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="44"/>
       <c r="D88" s="4" t="s">
         <v>17</v>
       </c>
@@ -12029,8 +12056,8 @@
       <c r="O88" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="P88" s="39"/>
-      <c r="Q88" s="30"/>
+      <c r="P88" s="41"/>
+      <c r="Q88" s="43"/>
     </row>
     <row r="89" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
@@ -12043,44 +12070,50 @@
         <v>5558061</v>
       </c>
       <c r="D89" s="8">
-        <v>70</v>
-      </c>
-      <c r="E89" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E89" s="3">
+        <v>11</v>
+      </c>
       <c r="F89" s="5">
         <f>E89*100/D89</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G89" s="9">
         <f t="shared" ref="G89:G118" si="16">F89*0.7</f>
-        <v>0</v>
+        <v>38.5</v>
       </c>
       <c r="H89" s="8">
-        <v>20</v>
-      </c>
-      <c r="I89" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="I89" s="3">
+        <v>9</v>
+      </c>
       <c r="J89" s="5">
         <f t="shared" ref="J89:J118" si="17">I89/H89*100</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="K89" s="9">
         <f>J89*0.2</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L89" s="8">
-        <v>10</v>
-      </c>
-      <c r="M89" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
+        <v>5</v>
+      </c>
       <c r="N89" s="5">
         <f>M89/L89*100</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O89" s="9">
         <f t="shared" ref="O89:O118" si="18">N89*0.1</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P89" s="3">
         <f>G89+K89+O89</f>
-        <v>0</v>
+        <v>66.5</v>
       </c>
       <c r="Q89" s="3" t="str">
         <f>IF(P89&lt;70,"Uno",IF(P89&lt;78,"Dos",IF(P89&lt;86,"Tres",IF(P89&lt;94,"Cuatro","Cinco"))))</f>
@@ -12098,9 +12131,11 @@
         <v>5794717</v>
       </c>
       <c r="D90" s="8">
-        <v>70</v>
-      </c>
-      <c r="E90" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E90" s="3">
+        <v>0</v>
+      </c>
       <c r="F90" s="5">
         <f t="shared" ref="F90:F118" si="19">E90*100/D90</f>
         <v>0</v>
@@ -12110,32 +12145,36 @@
         <v>0</v>
       </c>
       <c r="H90" s="8">
-        <v>20</v>
-      </c>
-      <c r="I90" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="I90" s="3">
+        <v>6</v>
+      </c>
       <c r="J90" s="5">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K90" s="9">
         <f t="shared" ref="K90:K118" si="20">J90*0.2</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L90" s="8">
-        <v>10</v>
-      </c>
-      <c r="M90" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M90" s="3">
+        <v>5</v>
+      </c>
       <c r="N90" s="5">
         <f t="shared" ref="N90:N118" si="21">M90/L90*100</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O90" s="9">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P90" s="3">
         <f t="shared" ref="P90:P118" si="22">G90+K90+O90</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Q90" s="3" t="str">
         <f t="shared" ref="Q90:Q118" si="23">IF(P90&lt;70,"Uno",IF(P90&lt;78,"Dos",IF(P90&lt;86,"Tres",IF(P90&lt;94,"Cuatro","Cinco"))))</f>
@@ -12153,48 +12192,54 @@
         <v>5812661</v>
       </c>
       <c r="D91" s="8">
-        <v>70</v>
-      </c>
-      <c r="E91" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E91" s="3">
+        <v>18</v>
+      </c>
       <c r="F91" s="5">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G91" s="9">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>62.999999999999993</v>
       </c>
       <c r="H91" s="8">
-        <v>20</v>
-      </c>
-      <c r="I91" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="I91" s="3">
+        <v>7</v>
+      </c>
       <c r="J91" s="5">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="K91" s="9">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L91" s="8">
-        <v>10</v>
-      </c>
-      <c r="M91" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
+        <v>5</v>
+      </c>
       <c r="N91" s="5">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O91" s="9">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P91" s="3">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="Q91" s="3" t="str">
         <f t="shared" si="23"/>
-        <v>Uno</v>
+        <v>Cuatro</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -12208,48 +12253,54 @@
         <v>5478710</v>
       </c>
       <c r="D92" s="8">
-        <v>70</v>
-      </c>
-      <c r="E92" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E92" s="3">
+        <v>19</v>
+      </c>
       <c r="F92" s="5">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G92" s="9">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>66.5</v>
       </c>
       <c r="H92" s="8">
-        <v>20</v>
-      </c>
-      <c r="I92" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="I92" s="3">
+        <v>10</v>
+      </c>
       <c r="J92" s="5">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K92" s="9">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L92" s="8">
-        <v>10</v>
-      </c>
-      <c r="M92" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M92" s="3">
+        <v>5</v>
+      </c>
       <c r="N92" s="5">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O92" s="9">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P92" s="3">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>96.5</v>
       </c>
       <c r="Q92" s="3" t="str">
         <f t="shared" si="23"/>
-        <v>Uno</v>
+        <v>Cinco</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -12263,44 +12314,50 @@
         <v>6358778</v>
       </c>
       <c r="D93" s="8">
-        <v>70</v>
-      </c>
-      <c r="E93" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E93" s="3">
+        <v>10</v>
+      </c>
       <c r="F93" s="5">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G93" s="9">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H93" s="8">
-        <v>20</v>
-      </c>
-      <c r="I93" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="I93" s="3">
+        <v>10</v>
+      </c>
       <c r="J93" s="5">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K93" s="9">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L93" s="8">
-        <v>10</v>
-      </c>
-      <c r="M93" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M93" s="3">
+        <v>5</v>
+      </c>
       <c r="N93" s="5">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O93" s="9">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P93" s="3">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="Q93" s="3" t="str">
         <f t="shared" si="23"/>
@@ -12318,48 +12375,54 @@
         <v>7344708</v>
       </c>
       <c r="D94" s="8">
-        <v>70</v>
-      </c>
-      <c r="E94" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E94" s="3">
+        <v>18</v>
+      </c>
       <c r="F94" s="5">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G94" s="9">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>62.999999999999993</v>
       </c>
       <c r="H94" s="8">
-        <v>20</v>
-      </c>
-      <c r="I94" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="I94" s="3">
+        <v>10</v>
+      </c>
       <c r="J94" s="5">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K94" s="9">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L94" s="8">
-        <v>10</v>
-      </c>
-      <c r="M94" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
+        <v>5</v>
+      </c>
       <c r="N94" s="5">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O94" s="9">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P94" s="3">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="Q94" s="3" t="str">
         <f t="shared" si="23"/>
-        <v>Uno</v>
+        <v>Cuatro</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -12373,48 +12436,54 @@
         <v>5495086</v>
       </c>
       <c r="D95" s="8">
-        <v>70</v>
-      </c>
-      <c r="E95" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E95" s="3">
+        <v>19</v>
+      </c>
       <c r="F95" s="5">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G95" s="9">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>66.5</v>
       </c>
       <c r="H95" s="8">
-        <v>20</v>
-      </c>
-      <c r="I95" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="I95" s="3">
+        <v>10</v>
+      </c>
       <c r="J95" s="5">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K95" s="9">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L95" s="8">
-        <v>10</v>
-      </c>
-      <c r="M95" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M95" s="3">
+        <v>5</v>
+      </c>
       <c r="N95" s="5">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O95" s="9">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P95" s="3">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>96.5</v>
       </c>
       <c r="Q95" s="3" t="str">
         <f t="shared" si="23"/>
-        <v>Uno</v>
+        <v>Cinco</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -12428,48 +12497,54 @@
         <v>5555441</v>
       </c>
       <c r="D96" s="8">
-        <v>70</v>
-      </c>
-      <c r="E96" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E96" s="3">
+        <v>19</v>
+      </c>
       <c r="F96" s="5">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G96" s="9">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>66.5</v>
       </c>
       <c r="H96" s="8">
-        <v>20</v>
-      </c>
-      <c r="I96" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="I96" s="3">
+        <v>7</v>
+      </c>
       <c r="J96" s="5">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="K96" s="9">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L96" s="8">
-        <v>10</v>
-      </c>
-      <c r="M96" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M96" s="3">
+        <v>5</v>
+      </c>
       <c r="N96" s="5">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O96" s="9">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P96" s="3">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>90.5</v>
       </c>
       <c r="Q96" s="3" t="str">
         <f t="shared" si="23"/>
-        <v>Uno</v>
+        <v>Cuatro</v>
       </c>
     </row>
     <row r="97" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -12483,48 +12558,54 @@
         <v>5647125</v>
       </c>
       <c r="D97" s="8">
-        <v>70</v>
-      </c>
-      <c r="E97" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E97" s="3">
+        <v>19</v>
+      </c>
       <c r="F97" s="5">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G97" s="9">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>66.5</v>
       </c>
       <c r="H97" s="8">
-        <v>20</v>
-      </c>
-      <c r="I97" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="I97" s="3">
+        <v>10</v>
+      </c>
       <c r="J97" s="5">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K97" s="9">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L97" s="8">
-        <v>10</v>
-      </c>
-      <c r="M97" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M97" s="3">
+        <v>5</v>
+      </c>
       <c r="N97" s="5">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O97" s="9">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P97" s="3">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>96.5</v>
       </c>
       <c r="Q97" s="3" t="str">
         <f t="shared" si="23"/>
-        <v>Uno</v>
+        <v>Cinco</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -12538,48 +12619,54 @@
         <v>5963081</v>
       </c>
       <c r="D98" s="8">
-        <v>70</v>
-      </c>
-      <c r="E98" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E98" s="3">
+        <v>20</v>
+      </c>
       <c r="F98" s="5">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G98" s="9">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H98" s="8">
-        <v>20</v>
-      </c>
-      <c r="I98" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="I98" s="3">
+        <v>10</v>
+      </c>
       <c r="J98" s="5">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K98" s="9">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L98" s="8">
-        <v>10</v>
-      </c>
-      <c r="M98" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M98" s="3">
+        <v>5</v>
+      </c>
       <c r="N98" s="5">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O98" s="9">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P98" s="3">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q98" s="3" t="str">
         <f t="shared" si="23"/>
-        <v>Uno</v>
+        <v>Cinco</v>
       </c>
     </row>
     <row r="99" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -12593,48 +12680,54 @@
         <v>8629817</v>
       </c>
       <c r="D99" s="8">
-        <v>70</v>
-      </c>
-      <c r="E99" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E99" s="3">
+        <v>19</v>
+      </c>
       <c r="F99" s="5">
         <f t="shared" ref="F99:F108" si="24">E99*100/D99</f>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G99" s="9">
         <f t="shared" ref="G99:G108" si="25">F99*0.7</f>
-        <v>0</v>
+        <v>66.5</v>
       </c>
       <c r="H99" s="8">
-        <v>20</v>
-      </c>
-      <c r="I99" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="I99" s="3">
+        <v>10</v>
+      </c>
       <c r="J99" s="5">
         <f t="shared" ref="J99:J108" si="26">I99/H99*100</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K99" s="9">
         <f t="shared" ref="K99:K108" si="27">J99*0.2</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L99" s="8">
-        <v>10</v>
-      </c>
-      <c r="M99" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M99" s="3">
+        <v>5</v>
+      </c>
       <c r="N99" s="5">
         <f t="shared" ref="N99:N108" si="28">M99/L99*100</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O99" s="9">
         <f t="shared" ref="O99:O108" si="29">N99*0.1</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P99" s="3">
         <f t="shared" ref="P99:P108" si="30">G99+K99+O99</f>
-        <v>0</v>
+        <v>96.5</v>
       </c>
       <c r="Q99" s="3" t="str">
         <f t="shared" ref="Q99:Q108" si="31">IF(P99&lt;70,"Uno",IF(P99&lt;78,"Dos",IF(P99&lt;86,"Tres",IF(P99&lt;94,"Cuatro","Cinco"))))</f>
-        <v>Uno</v>
+        <v>Cinco</v>
       </c>
     </row>
     <row r="100" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -12648,48 +12741,54 @@
         <v>5651396</v>
       </c>
       <c r="D100" s="8">
-        <v>70</v>
-      </c>
-      <c r="E100" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E100" s="3">
+        <v>18</v>
+      </c>
       <c r="F100" s="5">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G100" s="9">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>62.999999999999993</v>
       </c>
       <c r="H100" s="8">
-        <v>20</v>
-      </c>
-      <c r="I100" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="I100" s="3">
+        <v>9</v>
+      </c>
       <c r="J100" s="5">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="K100" s="9">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L100" s="8">
-        <v>10</v>
-      </c>
-      <c r="M100" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
+        <v>5</v>
+      </c>
       <c r="N100" s="5">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P100" s="3">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="Q100" s="3" t="str">
         <f t="shared" si="31"/>
-        <v>Uno</v>
+        <v>Cuatro</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -12703,48 +12802,54 @@
         <v>5423087</v>
       </c>
       <c r="D101" s="8">
-        <v>70</v>
-      </c>
-      <c r="E101" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E101" s="3">
+        <v>18</v>
+      </c>
       <c r="F101" s="5">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G101" s="9">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>62.999999999999993</v>
       </c>
       <c r="H101" s="8">
-        <v>20</v>
-      </c>
-      <c r="I101" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="I101" s="3">
+        <v>9</v>
+      </c>
       <c r="J101" s="5">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="K101" s="9">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L101" s="8">
-        <v>10</v>
-      </c>
-      <c r="M101" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
+        <v>5</v>
+      </c>
       <c r="N101" s="5">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O101" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P101" s="3">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="Q101" s="3" t="str">
         <f t="shared" si="31"/>
-        <v>Uno</v>
+        <v>Cuatro</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -12758,48 +12863,54 @@
         <v>5585450</v>
       </c>
       <c r="D102" s="8">
-        <v>70</v>
-      </c>
-      <c r="E102" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E102" s="3">
+        <v>18</v>
+      </c>
       <c r="F102" s="5">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G102" s="9">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>62.999999999999993</v>
       </c>
       <c r="H102" s="8">
-        <v>20</v>
-      </c>
-      <c r="I102" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="I102" s="3">
+        <v>9</v>
+      </c>
       <c r="J102" s="5">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="K102" s="9">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L102" s="8">
-        <v>10</v>
-      </c>
-      <c r="M102" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
+        <v>5</v>
+      </c>
       <c r="N102" s="5">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P102" s="3">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="Q102" s="3" t="str">
         <f t="shared" si="31"/>
-        <v>Uno</v>
+        <v>Cuatro</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -12813,44 +12924,50 @@
         <v>5690024</v>
       </c>
       <c r="D103" s="8">
-        <v>70</v>
-      </c>
-      <c r="E103" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E103" s="3">
+        <v>5</v>
+      </c>
       <c r="F103" s="5">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G103" s="9">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="H103" s="8">
-        <v>20</v>
-      </c>
-      <c r="I103" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="I103" s="3">
+        <v>10</v>
+      </c>
       <c r="J103" s="5">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K103" s="9">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L103" s="8">
-        <v>10</v>
-      </c>
-      <c r="M103" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M103" s="3">
+        <v>5</v>
+      </c>
       <c r="N103" s="5">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O103" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P103" s="3">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>47.5</v>
       </c>
       <c r="Q103" s="3" t="str">
         <f t="shared" si="31"/>
@@ -12868,48 +12985,54 @@
         <v>5296752</v>
       </c>
       <c r="D104" s="8">
-        <v>70</v>
-      </c>
-      <c r="E104" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E104" s="3">
+        <v>19</v>
+      </c>
       <c r="F104" s="5">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G104" s="9">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>66.5</v>
       </c>
       <c r="H104" s="8">
-        <v>20</v>
-      </c>
-      <c r="I104" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="I104" s="3">
+        <v>10</v>
+      </c>
       <c r="J104" s="5">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K104" s="9">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L104" s="8">
-        <v>10</v>
-      </c>
-      <c r="M104" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M104" s="3">
+        <v>5</v>
+      </c>
       <c r="N104" s="5">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O104" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P104" s="3">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>96.5</v>
       </c>
       <c r="Q104" s="3" t="str">
         <f t="shared" si="31"/>
-        <v>Uno</v>
+        <v>Cinco</v>
       </c>
     </row>
     <row r="105" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -12923,48 +13046,54 @@
         <v>5360307</v>
       </c>
       <c r="D105" s="8">
-        <v>70</v>
-      </c>
-      <c r="E105" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E105" s="3">
+        <v>19</v>
+      </c>
       <c r="F105" s="5">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G105" s="9">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>66.5</v>
       </c>
       <c r="H105" s="8">
-        <v>20</v>
-      </c>
-      <c r="I105" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="I105" s="3">
+        <v>10</v>
+      </c>
       <c r="J105" s="5">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K105" s="9">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L105" s="8">
-        <v>10</v>
-      </c>
-      <c r="M105" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M105" s="3">
+        <v>5</v>
+      </c>
       <c r="N105" s="5">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O105" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P105" s="3">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>96.5</v>
       </c>
       <c r="Q105" s="3" t="str">
         <f t="shared" si="31"/>
-        <v>Uno</v>
+        <v>Cinco</v>
       </c>
     </row>
     <row r="106" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -12978,9 +13107,11 @@
         <v>5222196</v>
       </c>
       <c r="D106" s="8">
-        <v>70</v>
-      </c>
-      <c r="E106" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E106" s="3">
+        <v>0</v>
+      </c>
       <c r="F106" s="5">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -12990,9 +13121,11 @@
         <v>0</v>
       </c>
       <c r="H106" s="8">
-        <v>20</v>
-      </c>
-      <c r="I106" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="I106" s="3">
+        <v>0</v>
+      </c>
       <c r="J106" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
@@ -13002,20 +13135,22 @@
         <v>0</v>
       </c>
       <c r="L106" s="8">
-        <v>10</v>
-      </c>
-      <c r="M106" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M106" s="3">
+        <v>5</v>
+      </c>
       <c r="N106" s="5">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O106" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P106" s="3">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q106" s="3" t="str">
         <f t="shared" si="31"/>
@@ -13033,48 +13168,54 @@
         <v>5387113</v>
       </c>
       <c r="D107" s="8">
-        <v>70</v>
-      </c>
-      <c r="E107" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E107" s="3">
+        <v>19</v>
+      </c>
       <c r="F107" s="5">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G107" s="9">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>66.5</v>
       </c>
       <c r="H107" s="8">
-        <v>20</v>
-      </c>
-      <c r="I107" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="I107" s="3">
+        <v>10</v>
+      </c>
       <c r="J107" s="5">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K107" s="9">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L107" s="8">
-        <v>10</v>
-      </c>
-      <c r="M107" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M107" s="3">
+        <v>5</v>
+      </c>
       <c r="N107" s="5">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O107" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P107" s="3">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>96.5</v>
       </c>
       <c r="Q107" s="3" t="str">
         <f t="shared" si="31"/>
-        <v>Uno</v>
+        <v>Cinco</v>
       </c>
     </row>
     <row r="108" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -13088,48 +13229,54 @@
         <v>5370878</v>
       </c>
       <c r="D108" s="8">
-        <v>70</v>
-      </c>
-      <c r="E108" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E108" s="3">
+        <v>20</v>
+      </c>
       <c r="F108" s="5">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G108" s="9">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H108" s="8">
-        <v>20</v>
-      </c>
-      <c r="I108" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="I108" s="3">
+        <v>10</v>
+      </c>
       <c r="J108" s="5">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K108" s="9">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L108" s="8">
-        <v>10</v>
-      </c>
-      <c r="M108" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M108" s="3">
+        <v>5</v>
+      </c>
       <c r="N108" s="5">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O108" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P108" s="3">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q108" s="3" t="str">
         <f t="shared" si="31"/>
-        <v>Uno</v>
+        <v>Cinco</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -13143,48 +13290,54 @@
         <v>7880685</v>
       </c>
       <c r="D109" s="8">
-        <v>70</v>
-      </c>
-      <c r="E109" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E109" s="3">
+        <v>19</v>
+      </c>
       <c r="F109" s="5">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G109" s="9">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>66.5</v>
       </c>
       <c r="H109" s="8">
-        <v>20</v>
-      </c>
-      <c r="I109" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="I109" s="3">
+        <v>9</v>
+      </c>
       <c r="J109" s="5">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="K109" s="9">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L109" s="8">
-        <v>10</v>
-      </c>
-      <c r="M109" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M109" s="3">
+        <v>5</v>
+      </c>
       <c r="N109" s="5">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O109" s="9">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P109" s="3">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>94.5</v>
       </c>
       <c r="Q109" s="3" t="str">
         <f t="shared" si="23"/>
-        <v>Uno</v>
+        <v>Cinco</v>
       </c>
     </row>
     <row r="110" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -13198,48 +13351,54 @@
         <v>6635040</v>
       </c>
       <c r="D110" s="8">
-        <v>70</v>
-      </c>
-      <c r="E110" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E110" s="3">
+        <v>19</v>
+      </c>
       <c r="F110" s="5">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G110" s="9">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>66.5</v>
       </c>
       <c r="H110" s="8">
-        <v>20</v>
-      </c>
-      <c r="I110" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="I110" s="3">
+        <v>10</v>
+      </c>
       <c r="J110" s="5">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K110" s="9">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L110" s="8">
-        <v>10</v>
-      </c>
-      <c r="M110" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M110" s="3">
+        <v>5</v>
+      </c>
       <c r="N110" s="5">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O110" s="9">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P110" s="3">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>96.5</v>
       </c>
       <c r="Q110" s="3" t="str">
         <f t="shared" si="23"/>
-        <v>Uno</v>
+        <v>Cinco</v>
       </c>
     </row>
     <row r="111" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -13253,48 +13412,54 @@
         <v>5834647</v>
       </c>
       <c r="D111" s="8">
-        <v>70</v>
-      </c>
-      <c r="E111" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E111" s="3">
+        <v>18</v>
+      </c>
       <c r="F111" s="5">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G111" s="9">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>62.999999999999993</v>
       </c>
       <c r="H111" s="8">
-        <v>20</v>
-      </c>
-      <c r="I111" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="I111" s="3">
+        <v>9</v>
+      </c>
       <c r="J111" s="5">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="K111" s="9">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L111" s="8">
-        <v>10</v>
-      </c>
-      <c r="M111" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M111" s="3">
+        <v>5</v>
+      </c>
       <c r="N111" s="5">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O111" s="9">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P111" s="3">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="Q111" s="3" t="str">
         <f t="shared" si="23"/>
-        <v>Uno</v>
+        <v>Cuatro</v>
       </c>
     </row>
     <row r="112" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -13308,48 +13473,54 @@
         <v>5935289</v>
       </c>
       <c r="D112" s="8">
-        <v>70</v>
-      </c>
-      <c r="E112" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E112" s="3">
+        <v>19</v>
+      </c>
       <c r="F112" s="5">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G112" s="9">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>66.5</v>
       </c>
       <c r="H112" s="8">
-        <v>20</v>
-      </c>
-      <c r="I112" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="I112" s="3">
+        <v>7</v>
+      </c>
       <c r="J112" s="5">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="K112" s="9">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L112" s="8">
-        <v>10</v>
-      </c>
-      <c r="M112" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M112" s="3">
+        <v>5</v>
+      </c>
       <c r="N112" s="5">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O112" s="9">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P112" s="3">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>90.5</v>
       </c>
       <c r="Q112" s="3" t="str">
         <f t="shared" si="23"/>
-        <v>Uno</v>
+        <v>Cuatro</v>
       </c>
     </row>
     <row r="113" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -13363,48 +13534,54 @@
         <v>6082850</v>
       </c>
       <c r="D113" s="8">
-        <v>70</v>
-      </c>
-      <c r="E113" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E113" s="3">
+        <v>18</v>
+      </c>
       <c r="F113" s="5">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G113" s="9">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>62.999999999999993</v>
       </c>
       <c r="H113" s="8">
-        <v>20</v>
-      </c>
-      <c r="I113" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="I113" s="3">
+        <v>10</v>
+      </c>
       <c r="J113" s="5">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K113" s="9">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L113" s="8">
-        <v>10</v>
-      </c>
-      <c r="M113" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M113" s="3">
+        <v>5</v>
+      </c>
       <c r="N113" s="5">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O113" s="9">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P113" s="3">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="Q113" s="3" t="str">
         <f t="shared" si="23"/>
-        <v>Uno</v>
+        <v>Cuatro</v>
       </c>
     </row>
     <row r="114" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -13418,48 +13595,54 @@
         <v>5617424</v>
       </c>
       <c r="D114" s="8">
-        <v>70</v>
-      </c>
-      <c r="E114" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E114" s="3">
+        <v>18</v>
+      </c>
       <c r="F114" s="5">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G114" s="9">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>62.999999999999993</v>
       </c>
       <c r="H114" s="8">
-        <v>20</v>
-      </c>
-      <c r="I114" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="I114" s="3">
+        <v>9</v>
+      </c>
       <c r="J114" s="5">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="K114" s="9">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L114" s="8">
-        <v>10</v>
-      </c>
-      <c r="M114" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M114" s="3">
+        <v>5</v>
+      </c>
       <c r="N114" s="5">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O114" s="9">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P114" s="3">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="Q114" s="3" t="str">
         <f t="shared" si="23"/>
-        <v>Uno</v>
+        <v>Cuatro</v>
       </c>
     </row>
     <row r="115" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -13473,21 +13656,25 @@
         <v>5209268</v>
       </c>
       <c r="D115" s="8">
-        <v>70</v>
-      </c>
-      <c r="E115" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E115" s="3">
+        <v>11</v>
+      </c>
       <c r="F115" s="5">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G115" s="9">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>38.5</v>
       </c>
       <c r="H115" s="8">
-        <v>20</v>
-      </c>
-      <c r="I115" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="I115" s="3">
+        <v>0</v>
+      </c>
       <c r="J115" s="5">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -13497,20 +13684,22 @@
         <v>0</v>
       </c>
       <c r="L115" s="8">
-        <v>10</v>
-      </c>
-      <c r="M115" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M115" s="3">
+        <v>5</v>
+      </c>
       <c r="N115" s="5">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O115" s="9">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P115" s="3">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>48.5</v>
       </c>
       <c r="Q115" s="3" t="str">
         <f t="shared" si="23"/>
@@ -13528,48 +13717,54 @@
         <v>5799451</v>
       </c>
       <c r="D116" s="8">
-        <v>70</v>
-      </c>
-      <c r="E116" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E116" s="3">
+        <v>20</v>
+      </c>
       <c r="F116" s="5">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G116" s="9">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H116" s="8">
-        <v>20</v>
-      </c>
-      <c r="I116" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="I116" s="3">
+        <v>10</v>
+      </c>
       <c r="J116" s="5">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K116" s="9">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L116" s="8">
-        <v>10</v>
-      </c>
-      <c r="M116" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M116" s="3">
+        <v>5</v>
+      </c>
       <c r="N116" s="5">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O116" s="9">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P116" s="3">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q116" s="3" t="str">
         <f t="shared" si="23"/>
-        <v>Uno</v>
+        <v>Cinco</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
@@ -13583,7 +13778,7 @@
         <v>1</v>
       </c>
       <c r="D117" s="8">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="E117" s="3"/>
       <c r="F117" s="5">
@@ -13595,7 +13790,7 @@
         <v>0</v>
       </c>
       <c r="H117" s="8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I117" s="3"/>
       <c r="J117" s="5">
@@ -13607,20 +13802,22 @@
         <v>0</v>
       </c>
       <c r="L117" s="8">
-        <v>10</v>
-      </c>
-      <c r="M117" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M117" s="3">
+        <v>5</v>
+      </c>
       <c r="N117" s="5">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O117" s="9">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P117" s="3">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q117" s="3" t="str">
         <f t="shared" si="23"/>
@@ -13638,7 +13835,7 @@
         <v>1</v>
       </c>
       <c r="D118" s="8">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="E118" s="3"/>
       <c r="F118" s="5">
@@ -13650,7 +13847,7 @@
         <v>0</v>
       </c>
       <c r="H118" s="8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I118" s="3"/>
       <c r="J118" s="5">
@@ -13662,20 +13859,22 @@
         <v>0</v>
       </c>
       <c r="L118" s="8">
-        <v>10</v>
-      </c>
-      <c r="M118" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M118" s="3">
+        <v>5</v>
+      </c>
       <c r="N118" s="5">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O118" s="9">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P118" s="3">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q118" s="3" t="str">
         <f t="shared" si="23"/>
@@ -13829,27 +14028,33 @@
       <c r="Q125" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="C74:P76"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="D50:G51"/>
-    <mergeCell ref="H50:K51"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="E48:Q48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="F49:Q49"/>
-    <mergeCell ref="L50:O51"/>
-    <mergeCell ref="P50:P52"/>
-    <mergeCell ref="Q50:Q52"/>
-    <mergeCell ref="C34:P36"/>
-    <mergeCell ref="A44:Q45"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="K47:Q47"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:K46"/>
-    <mergeCell ref="L46:Q46"/>
+  <mergeCells count="59">
+    <mergeCell ref="C120:P122"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="E84:Q84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="D86:G87"/>
+    <mergeCell ref="H86:K87"/>
+    <mergeCell ref="L86:O87"/>
+    <mergeCell ref="P86:P88"/>
+    <mergeCell ref="Q86:Q88"/>
+    <mergeCell ref="E85:Q85"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:K82"/>
+    <mergeCell ref="L82:Q82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A4:Q5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="E8:Q8"/>
     <mergeCell ref="A9:B9"/>
@@ -13863,34 +14068,35 @@
     <mergeCell ref="P10:P12"/>
     <mergeCell ref="Q10:Q12"/>
     <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A4:Q5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:K82"/>
-    <mergeCell ref="L82:Q82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="K83:Q83"/>
-    <mergeCell ref="C120:P122"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="E84:Q84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="F85:Q85"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="D86:G87"/>
-    <mergeCell ref="H86:K87"/>
-    <mergeCell ref="L86:O87"/>
-    <mergeCell ref="P86:P88"/>
-    <mergeCell ref="Q86:Q88"/>
+    <mergeCell ref="C34:P36"/>
+    <mergeCell ref="A44:Q45"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:K46"/>
+    <mergeCell ref="L46:Q46"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="E48:Q48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="F49:Q49"/>
+    <mergeCell ref="L50:O51"/>
+    <mergeCell ref="P50:P52"/>
+    <mergeCell ref="Q50:Q52"/>
+    <mergeCell ref="C74:P76"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="D50:G51"/>
+    <mergeCell ref="H50:K51"/>
   </mergeCells>
+  <conditionalFormatting sqref="Q89:Q116">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Uno"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -13898,7 +14104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -13968,78 +14174,78 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="40" t="s">
+      <c r="A6" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="31"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="26"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="51"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="3" t="s">
         <v>1</v>
       </c>
@@ -14055,128 +14261,128 @@
       <c r="J7" s="3">
         <v>2022</v>
       </c>
-      <c r="K7" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="28"/>
+      <c r="K7" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="31"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="4" t="s">
         <v>130</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="28"/>
+      <c r="E8" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="31"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="26"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="28"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="31"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="29" t="s">
+      <c r="B10" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="32" t="s">
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="32" t="s">
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="38" t="s">
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="Q10" s="29" t="s">
+      <c r="Q10" s="42" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="29"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="42"/>
     </row>
     <row r="12" spans="1:17" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="4" t="s">
         <v>17</v>
       </c>
@@ -14213,8 +14419,8 @@
       <c r="O12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="30"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="43"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
@@ -15539,78 +15745,78 @@
       <c r="Q44" s="1"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="48"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="48"/>
-      <c r="K45" s="48"/>
-      <c r="L45" s="48"/>
-      <c r="M45" s="48"/>
-      <c r="N45" s="48"/>
-      <c r="O45" s="48"/>
-      <c r="P45" s="48"/>
-      <c r="Q45" s="48"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="24"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
-      <c r="B46" s="49"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="49"/>
-      <c r="L46" s="49"/>
-      <c r="M46" s="49"/>
-      <c r="N46" s="49"/>
-      <c r="O46" s="49"/>
-      <c r="P46" s="49"/>
-      <c r="Q46" s="49"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
+      <c r="Q46" s="25"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="40" t="s">
+      <c r="A47" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="27"/>
+      <c r="C47" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="41"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="27"/>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="30"/>
+      <c r="N47" s="30"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="30"/>
+      <c r="Q47" s="31"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B48" s="26"/>
+      <c r="B48" s="27"/>
       <c r="C48" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D48" s="50" t="s">
+      <c r="D48" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E48" s="51"/>
+      <c r="E48" s="33"/>
       <c r="F48" s="3" t="s">
         <v>1</v>
       </c>
@@ -15626,128 +15832,128 @@
       <c r="J48" s="3">
         <v>2022</v>
       </c>
-      <c r="K48" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="L48" s="27"/>
-      <c r="M48" s="27"/>
-      <c r="N48" s="27"/>
-      <c r="O48" s="27"/>
-      <c r="P48" s="27"/>
-      <c r="Q48" s="28"/>
+      <c r="K48" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="L48" s="30"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="30"/>
+      <c r="P48" s="30"/>
+      <c r="Q48" s="31"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="26"/>
+      <c r="B49" s="27"/>
       <c r="C49" s="4" t="s">
         <v>131</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E49" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="27"/>
-      <c r="P49" s="27"/>
-      <c r="Q49" s="28"/>
+      <c r="E49" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="30"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="30"/>
+      <c r="Q49" s="31"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="26"/>
+      <c r="B50" s="27"/>
       <c r="C50" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D50" s="50" t="s">
+      <c r="D50" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="51"/>
-      <c r="F50" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="27"/>
-      <c r="N50" s="27"/>
-      <c r="O50" s="27"/>
-      <c r="P50" s="27"/>
-      <c r="Q50" s="28"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="30"/>
+      <c r="N50" s="30"/>
+      <c r="O50" s="30"/>
+      <c r="P50" s="30"/>
+      <c r="Q50" s="31"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B51" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="29" t="s">
+      <c r="B51" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="32" t="s">
+      <c r="D51" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="32" t="s">
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="33"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="32" t="s">
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="48"/>
+      <c r="L51" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="M51" s="33"/>
-      <c r="N51" s="33"/>
-      <c r="O51" s="34"/>
-      <c r="P51" s="38" t="s">
+      <c r="M51" s="47"/>
+      <c r="N51" s="47"/>
+      <c r="O51" s="48"/>
+      <c r="P51" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="Q51" s="29" t="s">
+      <c r="Q51" s="42" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="35"/>
-      <c r="M52" s="36"/>
-      <c r="N52" s="36"/>
-      <c r="O52" s="37"/>
-      <c r="P52" s="38"/>
-      <c r="Q52" s="29"/>
+      <c r="A52" s="42"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="51"/>
+      <c r="L52" s="49"/>
+      <c r="M52" s="50"/>
+      <c r="N52" s="50"/>
+      <c r="O52" s="51"/>
+      <c r="P52" s="40"/>
+      <c r="Q52" s="42"/>
     </row>
     <row r="53" spans="1:17" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="30"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="31"/>
+      <c r="A53" s="43"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="44"/>
       <c r="D53" s="4" t="s">
         <v>17</v>
       </c>
@@ -15784,8 +15990,8 @@
       <c r="O53" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="P53" s="39"/>
-      <c r="Q53" s="30"/>
+      <c r="P53" s="41"/>
+      <c r="Q53" s="43"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
@@ -17110,78 +17316,78 @@
       <c r="Q85" s="1"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A86" s="48"/>
-      <c r="B86" s="48"/>
-      <c r="C86" s="48"/>
-      <c r="D86" s="48"/>
-      <c r="E86" s="48"/>
-      <c r="F86" s="48"/>
-      <c r="G86" s="48"/>
-      <c r="H86" s="48"/>
-      <c r="I86" s="48"/>
-      <c r="J86" s="48"/>
-      <c r="K86" s="48"/>
-      <c r="L86" s="48"/>
-      <c r="M86" s="48"/>
-      <c r="N86" s="48"/>
-      <c r="O86" s="48"/>
-      <c r="P86" s="48"/>
-      <c r="Q86" s="48"/>
+      <c r="A86" s="24"/>
+      <c r="B86" s="24"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="24"/>
+      <c r="I86" s="24"/>
+      <c r="J86" s="24"/>
+      <c r="K86" s="24"/>
+      <c r="L86" s="24"/>
+      <c r="M86" s="24"/>
+      <c r="N86" s="24"/>
+      <c r="O86" s="24"/>
+      <c r="P86" s="24"/>
+      <c r="Q86" s="24"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A87" s="49"/>
-      <c r="B87" s="49"/>
-      <c r="C87" s="49"/>
-      <c r="D87" s="49"/>
-      <c r="E87" s="49"/>
-      <c r="F87" s="49"/>
-      <c r="G87" s="49"/>
-      <c r="H87" s="49"/>
-      <c r="I87" s="49"/>
-      <c r="J87" s="49"/>
-      <c r="K87" s="49"/>
-      <c r="L87" s="49"/>
-      <c r="M87" s="49"/>
-      <c r="N87" s="49"/>
-      <c r="O87" s="49"/>
-      <c r="P87" s="49"/>
-      <c r="Q87" s="49"/>
+      <c r="A87" s="25"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="25"/>
+      <c r="K87" s="25"/>
+      <c r="L87" s="25"/>
+      <c r="M87" s="25"/>
+      <c r="N87" s="25"/>
+      <c r="O87" s="25"/>
+      <c r="P87" s="25"/>
+      <c r="Q87" s="25"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A88" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B88" s="26"/>
-      <c r="C88" s="40" t="s">
+      <c r="A88" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="27"/>
+      <c r="C88" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D88" s="40"/>
-      <c r="E88" s="40"/>
-      <c r="F88" s="40"/>
-      <c r="G88" s="40"/>
-      <c r="H88" s="40"/>
-      <c r="I88" s="40"/>
-      <c r="J88" s="40"/>
-      <c r="K88" s="41"/>
-      <c r="L88" s="27"/>
-      <c r="M88" s="27"/>
-      <c r="N88" s="27"/>
-      <c r="O88" s="27"/>
-      <c r="P88" s="27"/>
-      <c r="Q88" s="28"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="28"/>
+      <c r="F88" s="28"/>
+      <c r="G88" s="28"/>
+      <c r="H88" s="28"/>
+      <c r="I88" s="28"/>
+      <c r="J88" s="28"/>
+      <c r="K88" s="29"/>
+      <c r="L88" s="30"/>
+      <c r="M88" s="30"/>
+      <c r="N88" s="30"/>
+      <c r="O88" s="30"/>
+      <c r="P88" s="30"/>
+      <c r="Q88" s="31"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A89" s="25" t="s">
+      <c r="A89" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B89" s="26"/>
+      <c r="B89" s="27"/>
       <c r="C89" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D89" s="50" t="s">
+      <c r="D89" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E89" s="51"/>
+      <c r="E89" s="33"/>
       <c r="F89" s="3" t="s">
         <v>1</v>
       </c>
@@ -17197,128 +17403,128 @@
       <c r="J89" s="3">
         <v>2022</v>
       </c>
-      <c r="K89" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="L89" s="27"/>
-      <c r="M89" s="27"/>
-      <c r="N89" s="27"/>
-      <c r="O89" s="27"/>
-      <c r="P89" s="27"/>
-      <c r="Q89" s="28"/>
+      <c r="K89" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="L89" s="30"/>
+      <c r="M89" s="30"/>
+      <c r="N89" s="30"/>
+      <c r="O89" s="30"/>
+      <c r="P89" s="30"/>
+      <c r="Q89" s="31"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A90" s="25" t="s">
+      <c r="A90" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B90" s="26"/>
+      <c r="B90" s="27"/>
       <c r="C90" s="4" t="s">
         <v>131</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E90" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="F90" s="27"/>
-      <c r="G90" s="27"/>
-      <c r="H90" s="27"/>
-      <c r="I90" s="27"/>
-      <c r="J90" s="27"/>
-      <c r="K90" s="27"/>
-      <c r="L90" s="27"/>
-      <c r="M90" s="27"/>
-      <c r="N90" s="27"/>
-      <c r="O90" s="27"/>
-      <c r="P90" s="27"/>
-      <c r="Q90" s="28"/>
+      <c r="E90" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F90" s="30"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="30"/>
+      <c r="I90" s="30"/>
+      <c r="J90" s="30"/>
+      <c r="K90" s="30"/>
+      <c r="L90" s="30"/>
+      <c r="M90" s="30"/>
+      <c r="N90" s="30"/>
+      <c r="O90" s="30"/>
+      <c r="P90" s="30"/>
+      <c r="Q90" s="31"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A91" s="25" t="s">
+      <c r="A91" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B91" s="26"/>
+      <c r="B91" s="27"/>
       <c r="C91" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D91" s="50" t="s">
+      <c r="D91" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="51"/>
-      <c r="F91" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="G91" s="27"/>
-      <c r="H91" s="27"/>
-      <c r="I91" s="27"/>
-      <c r="J91" s="27"/>
-      <c r="K91" s="27"/>
-      <c r="L91" s="27"/>
-      <c r="M91" s="27"/>
-      <c r="N91" s="27"/>
-      <c r="O91" s="27"/>
-      <c r="P91" s="27"/>
-      <c r="Q91" s="28"/>
+      <c r="E91" s="33"/>
+      <c r="F91" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="G91" s="30"/>
+      <c r="H91" s="30"/>
+      <c r="I91" s="30"/>
+      <c r="J91" s="30"/>
+      <c r="K91" s="30"/>
+      <c r="L91" s="30"/>
+      <c r="M91" s="30"/>
+      <c r="N91" s="30"/>
+      <c r="O91" s="30"/>
+      <c r="P91" s="30"/>
+      <c r="Q91" s="31"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A92" s="29" t="s">
+      <c r="A92" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B92" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C92" s="29" t="s">
+      <c r="B92" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D92" s="32" t="s">
+      <c r="D92" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="E92" s="33"/>
-      <c r="F92" s="33"/>
-      <c r="G92" s="34"/>
-      <c r="H92" s="32" t="s">
+      <c r="E92" s="47"/>
+      <c r="F92" s="47"/>
+      <c r="G92" s="48"/>
+      <c r="H92" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="I92" s="33"/>
-      <c r="J92" s="33"/>
-      <c r="K92" s="34"/>
-      <c r="L92" s="32" t="s">
+      <c r="I92" s="47"/>
+      <c r="J92" s="47"/>
+      <c r="K92" s="48"/>
+      <c r="L92" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="M92" s="33"/>
-      <c r="N92" s="33"/>
-      <c r="O92" s="34"/>
-      <c r="P92" s="38" t="s">
+      <c r="M92" s="47"/>
+      <c r="N92" s="47"/>
+      <c r="O92" s="48"/>
+      <c r="P92" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="Q92" s="29" t="s">
+      <c r="Q92" s="42" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A93" s="29"/>
-      <c r="B93" s="29"/>
-      <c r="C93" s="29"/>
-      <c r="D93" s="35"/>
-      <c r="E93" s="36"/>
-      <c r="F93" s="36"/>
-      <c r="G93" s="37"/>
-      <c r="H93" s="35"/>
-      <c r="I93" s="36"/>
-      <c r="J93" s="36"/>
-      <c r="K93" s="37"/>
-      <c r="L93" s="35"/>
-      <c r="M93" s="36"/>
-      <c r="N93" s="36"/>
-      <c r="O93" s="37"/>
-      <c r="P93" s="38"/>
-      <c r="Q93" s="29"/>
+      <c r="A93" s="42"/>
+      <c r="B93" s="42"/>
+      <c r="C93" s="42"/>
+      <c r="D93" s="49"/>
+      <c r="E93" s="50"/>
+      <c r="F93" s="50"/>
+      <c r="G93" s="51"/>
+      <c r="H93" s="49"/>
+      <c r="I93" s="50"/>
+      <c r="J93" s="50"/>
+      <c r="K93" s="51"/>
+      <c r="L93" s="49"/>
+      <c r="M93" s="50"/>
+      <c r="N93" s="50"/>
+      <c r="O93" s="51"/>
+      <c r="P93" s="40"/>
+      <c r="Q93" s="42"/>
     </row>
     <row r="94" spans="1:17" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="30"/>
-      <c r="B94" s="30"/>
-      <c r="C94" s="31"/>
+      <c r="A94" s="43"/>
+      <c r="B94" s="43"/>
+      <c r="C94" s="44"/>
       <c r="D94" s="4" t="s">
         <v>17</v>
       </c>
@@ -17355,8 +17561,8 @@
       <c r="O94" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="P94" s="39"/>
-      <c r="Q94" s="30"/>
+      <c r="P94" s="41"/>
+      <c r="Q94" s="43"/>
     </row>
     <row r="95" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
@@ -18623,18 +18829,41 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="A4:Q5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:Q8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:Q9"/>
+    <mergeCell ref="P92:P94"/>
+    <mergeCell ref="Q92:Q94"/>
+    <mergeCell ref="C116:P118"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="D92:G93"/>
+    <mergeCell ref="H92:K93"/>
+    <mergeCell ref="L92:O93"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="E90:Q90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="F91:Q91"/>
+    <mergeCell ref="P51:P53"/>
+    <mergeCell ref="Q51:Q53"/>
+    <mergeCell ref="C75:P77"/>
+    <mergeCell ref="A86:Q87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:K88"/>
+    <mergeCell ref="L88:Q88"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:G52"/>
+    <mergeCell ref="H51:K52"/>
+    <mergeCell ref="L51:O52"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="E49:Q49"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="F50:Q50"/>
@@ -18651,41 +18880,18 @@
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="D10:G11"/>
     <mergeCell ref="H10:K11"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="K48:Q48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="E49:Q49"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="F91:Q91"/>
-    <mergeCell ref="P51:P53"/>
-    <mergeCell ref="Q51:Q53"/>
-    <mergeCell ref="C75:P77"/>
-    <mergeCell ref="A86:Q87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:K88"/>
-    <mergeCell ref="L88:Q88"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:G52"/>
-    <mergeCell ref="H51:K52"/>
-    <mergeCell ref="L51:O52"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="K89:Q89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="E90:Q90"/>
-    <mergeCell ref="P92:P94"/>
-    <mergeCell ref="Q92:Q94"/>
-    <mergeCell ref="C116:P118"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="D92:G93"/>
-    <mergeCell ref="H92:K93"/>
-    <mergeCell ref="L92:O93"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:Q8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:Q9"/>
+    <mergeCell ref="A4:Q5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="K7:Q7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Evaluaciones CADA 2022-2/Planilla de Valoración 2022.xlsx
+++ b/Evaluaciones CADA 2022-2/Planilla de Valoración 2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Systems\NetBeansProjects\Evaluaciones CADA 2022-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elias\Documents\NetBeansProjects\Evaluaciones CADA 2022-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD47E9D1-C12D-485D-9562-F62B6AB74749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB3F15B-E82A-4EB0-90A6-0003F1EA8C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P. Valoración 7°,8°,9°" sheetId="3" r:id="rId1"/>
@@ -1002,26 +1002,54 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1042,41 +1070,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2095,78 +2095,78 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28" t="s">
+      <c r="A6" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="31"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="28"/>
     </row>
     <row r="7" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="27"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="33"/>
+      <c r="E7" s="51"/>
       <c r="F7" s="3" t="s">
         <v>1</v>
       </c>
@@ -2182,128 +2182,128 @@
       <c r="J7" s="3">
         <v>2022</v>
       </c>
-      <c r="K7" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="31"/>
+      <c r="K7" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="28"/>
     </row>
     <row r="8" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="27"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="31"/>
+      <c r="E8" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="28"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="27"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="31"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="28"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="42" t="s">
+      <c r="B10" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="34" t="s">
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="34" t="s">
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="40" t="s">
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="Q10" s="42" t="s">
+      <c r="Q10" s="29" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="42"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="29"/>
     </row>
     <row r="12" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="44"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="4" t="s">
         <v>17</v>
       </c>
@@ -2340,8 +2340,8 @@
       <c r="O12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="43"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="30"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
@@ -4068,65 +4068,65 @@
       <c r="B45" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C45" s="45" t="s">
+      <c r="C45" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="45"/>
-      <c r="K45" s="45"/>
-      <c r="L45" s="45"/>
-      <c r="M45" s="45"/>
-      <c r="N45" s="45"/>
-      <c r="O45" s="45"/>
-      <c r="P45" s="45"/>
-      <c r="Q45" s="45"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="24"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="45"/>
-      <c r="J46" s="45"/>
-      <c r="K46" s="45"/>
-      <c r="L46" s="45"/>
-      <c r="M46" s="45"/>
-      <c r="N46" s="45"/>
-      <c r="O46" s="45"/>
-      <c r="P46" s="45"/>
-      <c r="Q46" s="45"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="24"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="45"/>
-      <c r="J47" s="45"/>
-      <c r="K47" s="45"/>
-      <c r="L47" s="45"/>
-      <c r="M47" s="45"/>
-      <c r="N47" s="45"/>
-      <c r="O47" s="45"/>
-      <c r="P47" s="45"/>
-      <c r="Q47" s="45"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="24"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
@@ -4266,71 +4266,71 @@
       <c r="Q54" s="1"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="24"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="24"/>
-      <c r="K55" s="24"/>
-      <c r="L55" s="24"/>
-      <c r="M55" s="24"/>
-      <c r="N55" s="24"/>
-      <c r="O55" s="24"/>
-      <c r="P55" s="24"/>
-      <c r="Q55" s="24"/>
+      <c r="A55" s="48"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="48"/>
+      <c r="K55" s="48"/>
+      <c r="L55" s="48"/>
+      <c r="M55" s="48"/>
+      <c r="N55" s="48"/>
+      <c r="O55" s="48"/>
+      <c r="P55" s="48"/>
+      <c r="Q55" s="48"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="25"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25"/>
-      <c r="J56" s="25"/>
-      <c r="K56" s="25"/>
-      <c r="L56" s="25"/>
-      <c r="M56" s="25"/>
-      <c r="N56" s="25"/>
-      <c r="O56" s="25"/>
-      <c r="P56" s="25"/>
-      <c r="Q56" s="25"/>
+      <c r="A56" s="49"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="49"/>
+      <c r="I56" s="49"/>
+      <c r="J56" s="49"/>
+      <c r="K56" s="49"/>
+      <c r="L56" s="49"/>
+      <c r="M56" s="49"/>
+      <c r="N56" s="49"/>
+      <c r="O56" s="49"/>
+      <c r="P56" s="49"/>
+      <c r="Q56" s="49"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" s="27"/>
-      <c r="C57" s="28" t="s">
+      <c r="A57" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="26"/>
+      <c r="C57" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="29"/>
-      <c r="L57" s="30"/>
-      <c r="M57" s="30"/>
-      <c r="N57" s="30"/>
-      <c r="O57" s="30"/>
-      <c r="P57" s="30"/>
-      <c r="Q57" s="31"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="41"/>
+      <c r="L57" s="27"/>
+      <c r="M57" s="27"/>
+      <c r="N57" s="27"/>
+      <c r="O57" s="27"/>
+      <c r="P57" s="27"/>
+      <c r="Q57" s="28"/>
     </row>
     <row r="58" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A58" s="26" t="s">
+      <c r="A58" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B58" s="27"/>
+      <c r="B58" s="26"/>
       <c r="C58" s="15" t="s">
         <v>38</v>
       </c>
@@ -4355,48 +4355,48 @@
       <c r="J58" s="3">
         <v>2022</v>
       </c>
-      <c r="K58" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="L58" s="30"/>
-      <c r="M58" s="30"/>
-      <c r="N58" s="30"/>
-      <c r="O58" s="30"/>
-      <c r="P58" s="30"/>
-      <c r="Q58" s="31"/>
+      <c r="K58" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="L58" s="27"/>
+      <c r="M58" s="27"/>
+      <c r="N58" s="27"/>
+      <c r="O58" s="27"/>
+      <c r="P58" s="27"/>
+      <c r="Q58" s="28"/>
     </row>
     <row r="59" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="26" t="s">
+      <c r="A59" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B59" s="27"/>
+      <c r="B59" s="26"/>
       <c r="C59" s="15" t="s">
         <v>42</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E59" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="30"/>
-      <c r="M59" s="30"/>
-      <c r="N59" s="30"/>
-      <c r="O59" s="30"/>
-      <c r="P59" s="30"/>
-      <c r="Q59" s="31"/>
+      <c r="E59" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="27"/>
+      <c r="M59" s="27"/>
+      <c r="N59" s="27"/>
+      <c r="O59" s="27"/>
+      <c r="P59" s="27"/>
+      <c r="Q59" s="28"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="26" t="s">
+      <c r="A60" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B60" s="27"/>
+      <c r="B60" s="26"/>
       <c r="C60" s="3" t="s">
         <v>1</v>
       </c>
@@ -4406,79 +4406,79 @@
       <c r="E60" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F60" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="G60" s="30"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="30"/>
-      <c r="J60" s="30"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="30"/>
-      <c r="M60" s="30"/>
-      <c r="N60" s="30"/>
-      <c r="O60" s="30"/>
-      <c r="P60" s="30"/>
-      <c r="Q60" s="31"/>
+      <c r="F60" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="27"/>
+      <c r="L60" s="27"/>
+      <c r="M60" s="27"/>
+      <c r="N60" s="27"/>
+      <c r="O60" s="27"/>
+      <c r="P60" s="27"/>
+      <c r="Q60" s="28"/>
     </row>
     <row r="61" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="42" t="s">
+      <c r="A61" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" s="42" t="s">
+      <c r="B61" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="46" t="s">
+      <c r="D61" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E61" s="47"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="48"/>
-      <c r="H61" s="46" t="s">
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="I61" s="47"/>
-      <c r="J61" s="47"/>
-      <c r="K61" s="48"/>
-      <c r="L61" s="46" t="s">
+      <c r="I61" s="33"/>
+      <c r="J61" s="33"/>
+      <c r="K61" s="34"/>
+      <c r="L61" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="M61" s="47"/>
-      <c r="N61" s="47"/>
-      <c r="O61" s="48"/>
-      <c r="P61" s="40" t="s">
+      <c r="M61" s="33"/>
+      <c r="N61" s="33"/>
+      <c r="O61" s="34"/>
+      <c r="P61" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="Q61" s="42" t="s">
+      <c r="Q61" s="29" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="42"/>
-      <c r="B62" s="42"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="50"/>
-      <c r="G62" s="51"/>
-      <c r="H62" s="49"/>
-      <c r="I62" s="50"/>
-      <c r="J62" s="50"/>
-      <c r="K62" s="51"/>
-      <c r="L62" s="49"/>
-      <c r="M62" s="50"/>
-      <c r="N62" s="50"/>
-      <c r="O62" s="51"/>
-      <c r="P62" s="40"/>
-      <c r="Q62" s="42"/>
+      <c r="A62" s="29"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="37"/>
+      <c r="L62" s="35"/>
+      <c r="M62" s="36"/>
+      <c r="N62" s="36"/>
+      <c r="O62" s="37"/>
+      <c r="P62" s="38"/>
+      <c r="Q62" s="29"/>
     </row>
     <row r="63" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="43"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="44"/>
+      <c r="A63" s="30"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="31"/>
       <c r="D63" s="4" t="s">
         <v>17</v>
       </c>
@@ -4515,8 +4515,8 @@
       <c r="O63" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="P63" s="41"/>
-      <c r="Q63" s="43"/>
+      <c r="P63" s="39"/>
+      <c r="Q63" s="30"/>
     </row>
     <row r="64" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
@@ -6177,65 +6177,65 @@
       <c r="B95" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="45" t="s">
+      <c r="C95" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D95" s="45"/>
-      <c r="E95" s="45"/>
-      <c r="F95" s="45"/>
-      <c r="G95" s="45"/>
-      <c r="H95" s="45"/>
-      <c r="I95" s="45"/>
-      <c r="J95" s="45"/>
-      <c r="K95" s="45"/>
-      <c r="L95" s="45"/>
-      <c r="M95" s="45"/>
-      <c r="N95" s="45"/>
-      <c r="O95" s="45"/>
-      <c r="P95" s="45"/>
-      <c r="Q95" s="45"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="24"/>
+      <c r="I95" s="24"/>
+      <c r="J95" s="24"/>
+      <c r="K95" s="24"/>
+      <c r="L95" s="24"/>
+      <c r="M95" s="24"/>
+      <c r="N95" s="24"/>
+      <c r="O95" s="24"/>
+      <c r="P95" s="24"/>
+      <c r="Q95" s="24"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C96" s="45"/>
-      <c r="D96" s="45"/>
-      <c r="E96" s="45"/>
-      <c r="F96" s="45"/>
-      <c r="G96" s="45"/>
-      <c r="H96" s="45"/>
-      <c r="I96" s="45"/>
-      <c r="J96" s="45"/>
-      <c r="K96" s="45"/>
-      <c r="L96" s="45"/>
-      <c r="M96" s="45"/>
-      <c r="N96" s="45"/>
-      <c r="O96" s="45"/>
-      <c r="P96" s="45"/>
-      <c r="Q96" s="45"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="24"/>
+      <c r="I96" s="24"/>
+      <c r="J96" s="24"/>
+      <c r="K96" s="24"/>
+      <c r="L96" s="24"/>
+      <c r="M96" s="24"/>
+      <c r="N96" s="24"/>
+      <c r="O96" s="24"/>
+      <c r="P96" s="24"/>
+      <c r="Q96" s="24"/>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C97" s="45"/>
-      <c r="D97" s="45"/>
-      <c r="E97" s="45"/>
-      <c r="F97" s="45"/>
-      <c r="G97" s="45"/>
-      <c r="H97" s="45"/>
-      <c r="I97" s="45"/>
-      <c r="J97" s="45"/>
-      <c r="K97" s="45"/>
-      <c r="L97" s="45"/>
-      <c r="M97" s="45"/>
-      <c r="N97" s="45"/>
-      <c r="O97" s="45"/>
-      <c r="P97" s="45"/>
-      <c r="Q97" s="45"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="24"/>
+      <c r="I97" s="24"/>
+      <c r="J97" s="24"/>
+      <c r="K97" s="24"/>
+      <c r="L97" s="24"/>
+      <c r="M97" s="24"/>
+      <c r="N97" s="24"/>
+      <c r="O97" s="24"/>
+      <c r="P97" s="24"/>
+      <c r="Q97" s="24"/>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
@@ -6299,33 +6299,33 @@
       <c r="Q100" s="1"/>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A104" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B104" s="27"/>
-      <c r="C104" s="28" t="s">
+      <c r="A104" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" s="26"/>
+      <c r="C104" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="D104" s="28"/>
-      <c r="E104" s="28"/>
-      <c r="F104" s="28"/>
-      <c r="G104" s="28"/>
-      <c r="H104" s="28"/>
-      <c r="I104" s="28"/>
-      <c r="J104" s="28"/>
-      <c r="K104" s="29"/>
-      <c r="L104" s="30"/>
-      <c r="M104" s="30"/>
-      <c r="N104" s="30"/>
-      <c r="O104" s="30"/>
-      <c r="P104" s="30"/>
-      <c r="Q104" s="31"/>
+      <c r="D104" s="40"/>
+      <c r="E104" s="40"/>
+      <c r="F104" s="40"/>
+      <c r="G104" s="40"/>
+      <c r="H104" s="40"/>
+      <c r="I104" s="40"/>
+      <c r="J104" s="40"/>
+      <c r="K104" s="41"/>
+      <c r="L104" s="27"/>
+      <c r="M104" s="27"/>
+      <c r="N104" s="27"/>
+      <c r="O104" s="27"/>
+      <c r="P104" s="27"/>
+      <c r="Q104" s="28"/>
     </row>
     <row r="105" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A105" s="26" t="s">
+      <c r="A105" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B105" s="27"/>
+      <c r="B105" s="26"/>
       <c r="C105" s="15" t="s">
         <v>38</v>
       </c>
@@ -6350,48 +6350,48 @@
       <c r="J105" s="3">
         <v>2022</v>
       </c>
-      <c r="K105" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="L105" s="30"/>
-      <c r="M105" s="30"/>
-      <c r="N105" s="30"/>
-      <c r="O105" s="30"/>
-      <c r="P105" s="30"/>
-      <c r="Q105" s="31"/>
+      <c r="K105" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="L105" s="27"/>
+      <c r="M105" s="27"/>
+      <c r="N105" s="27"/>
+      <c r="O105" s="27"/>
+      <c r="P105" s="27"/>
+      <c r="Q105" s="28"/>
     </row>
     <row r="106" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A106" s="26" t="s">
+      <c r="A106" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B106" s="27"/>
+      <c r="B106" s="26"/>
       <c r="C106" s="15" t="s">
         <v>41</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E106" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F106" s="30"/>
-      <c r="G106" s="30"/>
-      <c r="H106" s="30"/>
-      <c r="I106" s="30"/>
-      <c r="J106" s="30"/>
-      <c r="K106" s="30"/>
-      <c r="L106" s="30"/>
-      <c r="M106" s="30"/>
-      <c r="N106" s="30"/>
-      <c r="O106" s="30"/>
-      <c r="P106" s="30"/>
-      <c r="Q106" s="31"/>
+      <c r="E106" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F106" s="27"/>
+      <c r="G106" s="27"/>
+      <c r="H106" s="27"/>
+      <c r="I106" s="27"/>
+      <c r="J106" s="27"/>
+      <c r="K106" s="27"/>
+      <c r="L106" s="27"/>
+      <c r="M106" s="27"/>
+      <c r="N106" s="27"/>
+      <c r="O106" s="27"/>
+      <c r="P106" s="27"/>
+      <c r="Q106" s="28"/>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A107" s="26" t="s">
+      <c r="A107" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B107" s="27"/>
+      <c r="B107" s="26"/>
       <c r="C107" s="3" t="s">
         <v>1</v>
       </c>
@@ -6401,79 +6401,79 @@
       <c r="E107" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F107" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="G107" s="30"/>
-      <c r="H107" s="30"/>
-      <c r="I107" s="30"/>
-      <c r="J107" s="30"/>
-      <c r="K107" s="30"/>
-      <c r="L107" s="30"/>
-      <c r="M107" s="30"/>
-      <c r="N107" s="30"/>
-      <c r="O107" s="30"/>
-      <c r="P107" s="30"/>
-      <c r="Q107" s="31"/>
+      <c r="F107" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G107" s="27"/>
+      <c r="H107" s="27"/>
+      <c r="I107" s="27"/>
+      <c r="J107" s="27"/>
+      <c r="K107" s="27"/>
+      <c r="L107" s="27"/>
+      <c r="M107" s="27"/>
+      <c r="N107" s="27"/>
+      <c r="O107" s="27"/>
+      <c r="P107" s="27"/>
+      <c r="Q107" s="28"/>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A108" s="42" t="s">
+      <c r="A108" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B108" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C108" s="42" t="s">
+      <c r="B108" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D108" s="46" t="s">
+      <c r="D108" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E108" s="47"/>
-      <c r="F108" s="47"/>
-      <c r="G108" s="48"/>
-      <c r="H108" s="46" t="s">
+      <c r="E108" s="33"/>
+      <c r="F108" s="33"/>
+      <c r="G108" s="34"/>
+      <c r="H108" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="I108" s="47"/>
-      <c r="J108" s="47"/>
-      <c r="K108" s="48"/>
-      <c r="L108" s="46" t="s">
+      <c r="I108" s="33"/>
+      <c r="J108" s="33"/>
+      <c r="K108" s="34"/>
+      <c r="L108" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="M108" s="47"/>
-      <c r="N108" s="47"/>
-      <c r="O108" s="48"/>
-      <c r="P108" s="40" t="s">
+      <c r="M108" s="33"/>
+      <c r="N108" s="33"/>
+      <c r="O108" s="34"/>
+      <c r="P108" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="Q108" s="42" t="s">
+      <c r="Q108" s="29" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A109" s="42"/>
-      <c r="B109" s="42"/>
-      <c r="C109" s="42"/>
-      <c r="D109" s="49"/>
-      <c r="E109" s="50"/>
-      <c r="F109" s="50"/>
-      <c r="G109" s="51"/>
-      <c r="H109" s="49"/>
-      <c r="I109" s="50"/>
-      <c r="J109" s="50"/>
-      <c r="K109" s="51"/>
-      <c r="L109" s="49"/>
-      <c r="M109" s="50"/>
-      <c r="N109" s="50"/>
-      <c r="O109" s="51"/>
-      <c r="P109" s="40"/>
-      <c r="Q109" s="42"/>
+      <c r="A109" s="29"/>
+      <c r="B109" s="29"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="35"/>
+      <c r="E109" s="36"/>
+      <c r="F109" s="36"/>
+      <c r="G109" s="37"/>
+      <c r="H109" s="35"/>
+      <c r="I109" s="36"/>
+      <c r="J109" s="36"/>
+      <c r="K109" s="37"/>
+      <c r="L109" s="35"/>
+      <c r="M109" s="36"/>
+      <c r="N109" s="36"/>
+      <c r="O109" s="37"/>
+      <c r="P109" s="38"/>
+      <c r="Q109" s="29"/>
     </row>
     <row r="110" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="43"/>
-      <c r="B110" s="43"/>
-      <c r="C110" s="44"/>
+      <c r="A110" s="30"/>
+      <c r="B110" s="30"/>
+      <c r="C110" s="31"/>
       <c r="D110" s="4" t="s">
         <v>17</v>
       </c>
@@ -6510,8 +6510,8 @@
       <c r="O110" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="P110" s="41"/>
-      <c r="Q110" s="43"/>
+      <c r="P110" s="39"/>
+      <c r="Q110" s="30"/>
     </row>
     <row r="111" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
@@ -8517,65 +8517,65 @@
       <c r="B148" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C148" s="45" t="s">
+      <c r="C148" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D148" s="45"/>
-      <c r="E148" s="45"/>
-      <c r="F148" s="45"/>
-      <c r="G148" s="45"/>
-      <c r="H148" s="45"/>
-      <c r="I148" s="45"/>
-      <c r="J148" s="45"/>
-      <c r="K148" s="45"/>
-      <c r="L148" s="45"/>
-      <c r="M148" s="45"/>
-      <c r="N148" s="45"/>
-      <c r="O148" s="45"/>
-      <c r="P148" s="45"/>
-      <c r="Q148" s="45"/>
+      <c r="D148" s="24"/>
+      <c r="E148" s="24"/>
+      <c r="F148" s="24"/>
+      <c r="G148" s="24"/>
+      <c r="H148" s="24"/>
+      <c r="I148" s="24"/>
+      <c r="J148" s="24"/>
+      <c r="K148" s="24"/>
+      <c r="L148" s="24"/>
+      <c r="M148" s="24"/>
+      <c r="N148" s="24"/>
+      <c r="O148" s="24"/>
+      <c r="P148" s="24"/>
+      <c r="Q148" s="24"/>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C149" s="45"/>
-      <c r="D149" s="45"/>
-      <c r="E149" s="45"/>
-      <c r="F149" s="45"/>
-      <c r="G149" s="45"/>
-      <c r="H149" s="45"/>
-      <c r="I149" s="45"/>
-      <c r="J149" s="45"/>
-      <c r="K149" s="45"/>
-      <c r="L149" s="45"/>
-      <c r="M149" s="45"/>
-      <c r="N149" s="45"/>
-      <c r="O149" s="45"/>
-      <c r="P149" s="45"/>
-      <c r="Q149" s="45"/>
+      <c r="C149" s="24"/>
+      <c r="D149" s="24"/>
+      <c r="E149" s="24"/>
+      <c r="F149" s="24"/>
+      <c r="G149" s="24"/>
+      <c r="H149" s="24"/>
+      <c r="I149" s="24"/>
+      <c r="J149" s="24"/>
+      <c r="K149" s="24"/>
+      <c r="L149" s="24"/>
+      <c r="M149" s="24"/>
+      <c r="N149" s="24"/>
+      <c r="O149" s="24"/>
+      <c r="P149" s="24"/>
+      <c r="Q149" s="24"/>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C150" s="45"/>
-      <c r="D150" s="45"/>
-      <c r="E150" s="45"/>
-      <c r="F150" s="45"/>
-      <c r="G150" s="45"/>
-      <c r="H150" s="45"/>
-      <c r="I150" s="45"/>
-      <c r="J150" s="45"/>
-      <c r="K150" s="45"/>
-      <c r="L150" s="45"/>
-      <c r="M150" s="45"/>
-      <c r="N150" s="45"/>
-      <c r="O150" s="45"/>
-      <c r="P150" s="45"/>
-      <c r="Q150" s="45"/>
+      <c r="C150" s="24"/>
+      <c r="D150" s="24"/>
+      <c r="E150" s="24"/>
+      <c r="F150" s="24"/>
+      <c r="G150" s="24"/>
+      <c r="H150" s="24"/>
+      <c r="I150" s="24"/>
+      <c r="J150" s="24"/>
+      <c r="K150" s="24"/>
+      <c r="L150" s="24"/>
+      <c r="M150" s="24"/>
+      <c r="N150" s="24"/>
+      <c r="O150" s="24"/>
+      <c r="P150" s="24"/>
+      <c r="Q150" s="24"/>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
@@ -8640,24 +8640,30 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="C148:Q150"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="E106:Q106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="F107:Q107"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="D108:G109"/>
-    <mergeCell ref="H108:K109"/>
-    <mergeCell ref="L108:O109"/>
-    <mergeCell ref="P108:P110"/>
-    <mergeCell ref="Q108:Q110"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:K104"/>
-    <mergeCell ref="L104:Q104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="K105:Q105"/>
+    <mergeCell ref="A4:Q5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:Q8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:Q9"/>
+    <mergeCell ref="L10:O11"/>
+    <mergeCell ref="P10:P12"/>
+    <mergeCell ref="Q10:Q12"/>
+    <mergeCell ref="A55:Q56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:K57"/>
+    <mergeCell ref="L57:Q57"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:G11"/>
+    <mergeCell ref="H10:K11"/>
     <mergeCell ref="P61:P63"/>
     <mergeCell ref="Q61:Q63"/>
     <mergeCell ref="C95:Q97"/>
@@ -8674,30 +8680,24 @@
     <mergeCell ref="E59:Q59"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="F60:Q60"/>
-    <mergeCell ref="L10:O11"/>
-    <mergeCell ref="P10:P12"/>
-    <mergeCell ref="Q10:Q12"/>
-    <mergeCell ref="A55:Q56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:K57"/>
-    <mergeCell ref="L57:Q57"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:G11"/>
-    <mergeCell ref="H10:K11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:Q8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:Q9"/>
-    <mergeCell ref="A4:Q5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:K104"/>
+    <mergeCell ref="L104:Q104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="K105:Q105"/>
+    <mergeCell ref="C148:Q150"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="E106:Q106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="F107:Q107"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="D108:G109"/>
+    <mergeCell ref="H108:K109"/>
+    <mergeCell ref="L108:O109"/>
+    <mergeCell ref="P108:P110"/>
+    <mergeCell ref="Q108:Q110"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8710,7 +8710,7 @@
   <dimension ref="A1:Q125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+      <selection activeCell="Q94" sqref="Q94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8779,78 +8779,78 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28" t="s">
+      <c r="A6" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="31"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="28"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="27"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="33"/>
+      <c r="E7" s="51"/>
       <c r="F7" s="3" t="s">
         <v>1</v>
       </c>
@@ -8866,128 +8866,128 @@
       <c r="J7" s="3">
         <v>2022</v>
       </c>
-      <c r="K7" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="31"/>
+      <c r="K7" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="28"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="27"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="4" t="s">
         <v>130</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="31"/>
+      <c r="E8" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="28"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="27"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="31"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="28"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="42" t="s">
+      <c r="B10" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="46" t="s">
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="46" t="s">
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="40" t="s">
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="Q10" s="42" t="s">
+      <c r="Q10" s="29" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="42"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="29"/>
     </row>
     <row r="12" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="44"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="4" t="s">
         <v>17</v>
       </c>
@@ -9024,8 +9024,8 @@
       <c r="O12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="43"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="30"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
@@ -10350,71 +10350,71 @@
       <c r="Q43" s="1"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="24"/>
-      <c r="N44" s="24"/>
-      <c r="O44" s="24"/>
-      <c r="P44" s="24"/>
-      <c r="Q44" s="24"/>
+      <c r="A44" s="48"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="48"/>
+      <c r="M44" s="48"/>
+      <c r="N44" s="48"/>
+      <c r="O44" s="48"/>
+      <c r="P44" s="48"/>
+      <c r="Q44" s="48"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="25"/>
-      <c r="P45" s="25"/>
-      <c r="Q45" s="25"/>
+      <c r="A45" s="49"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="49"/>
+      <c r="N45" s="49"/>
+      <c r="O45" s="49"/>
+      <c r="P45" s="49"/>
+      <c r="Q45" s="49"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="27"/>
-      <c r="C46" s="28" t="s">
+      <c r="A46" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="26"/>
+      <c r="C46" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="30"/>
-      <c r="O46" s="30"/>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="31"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="27"/>
+      <c r="P46" s="27"/>
+      <c r="Q46" s="28"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="26" t="s">
+      <c r="A47" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="27"/>
+      <c r="B47" s="26"/>
       <c r="C47" s="4" t="s">
         <v>132</v>
       </c>
@@ -10439,48 +10439,48 @@
       <c r="J47" s="3">
         <v>2022</v>
       </c>
-      <c r="K47" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="L47" s="30"/>
-      <c r="M47" s="30"/>
-      <c r="N47" s="30"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="31"/>
+      <c r="K47" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="27"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="28"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="26" t="s">
+      <c r="A48" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="27"/>
+      <c r="B48" s="26"/>
       <c r="C48" s="4" t="s">
         <v>131</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="31"/>
+      <c r="E48" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="27"/>
+      <c r="P48" s="27"/>
+      <c r="Q48" s="28"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="27"/>
+      <c r="B49" s="26"/>
       <c r="C49" s="3" t="s">
         <v>1</v>
       </c>
@@ -10490,79 +10490,79 @@
       <c r="E49" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F49" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="30"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="31"/>
+      <c r="F49" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="28"/>
     </row>
     <row r="50" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="42" t="s">
+      <c r="A50" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="42" t="s">
+      <c r="B50" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="46" t="s">
+      <c r="D50" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="46" t="s">
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="I50" s="47"/>
-      <c r="J50" s="47"/>
-      <c r="K50" s="48"/>
-      <c r="L50" s="46" t="s">
+      <c r="I50" s="33"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="M50" s="47"/>
-      <c r="N50" s="47"/>
-      <c r="O50" s="48"/>
-      <c r="P50" s="40" t="s">
+      <c r="M50" s="33"/>
+      <c r="N50" s="33"/>
+      <c r="O50" s="34"/>
+      <c r="P50" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="Q50" s="42" t="s">
+      <c r="Q50" s="29" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="49"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="50"/>
-      <c r="J51" s="50"/>
-      <c r="K51" s="51"/>
-      <c r="L51" s="49"/>
-      <c r="M51" s="50"/>
-      <c r="N51" s="50"/>
-      <c r="O51" s="51"/>
-      <c r="P51" s="40"/>
-      <c r="Q51" s="42"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="36"/>
+      <c r="N51" s="36"/>
+      <c r="O51" s="37"/>
+      <c r="P51" s="38"/>
+      <c r="Q51" s="29"/>
     </row>
     <row r="52" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="43"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="44"/>
+      <c r="A52" s="30"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="31"/>
       <c r="D52" s="4" t="s">
         <v>17</v>
       </c>
@@ -10599,8 +10599,8 @@
       <c r="O52" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="P52" s="41"/>
-      <c r="Q52" s="43"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="30"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
@@ -11849,40 +11849,40 @@
       <c r="Q79" s="1"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A82" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B82" s="27"/>
-      <c r="C82" s="28" t="s">
+      <c r="A82" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="26"/>
+      <c r="C82" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="D82" s="28"/>
-      <c r="E82" s="28"/>
-      <c r="F82" s="28"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="28"/>
-      <c r="J82" s="28"/>
-      <c r="K82" s="29"/>
-      <c r="L82" s="30"/>
-      <c r="M82" s="30"/>
-      <c r="N82" s="30"/>
-      <c r="O82" s="30"/>
-      <c r="P82" s="30"/>
-      <c r="Q82" s="31"/>
+      <c r="D82" s="40"/>
+      <c r="E82" s="40"/>
+      <c r="F82" s="40"/>
+      <c r="G82" s="40"/>
+      <c r="H82" s="40"/>
+      <c r="I82" s="40"/>
+      <c r="J82" s="40"/>
+      <c r="K82" s="41"/>
+      <c r="L82" s="27"/>
+      <c r="M82" s="27"/>
+      <c r="N82" s="27"/>
+      <c r="O82" s="27"/>
+      <c r="P82" s="27"/>
+      <c r="Q82" s="28"/>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A83" s="26" t="s">
+      <c r="A83" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="27"/>
+      <c r="B83" s="26"/>
       <c r="C83" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D83" s="32" t="s">
+      <c r="D83" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="E83" s="33"/>
+      <c r="E83" s="51"/>
       <c r="F83" s="3" t="s">
         <v>1</v>
       </c>
@@ -11898,21 +11898,21 @@
       <c r="J83" s="3">
         <v>2022</v>
       </c>
-      <c r="K83" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="L83" s="30"/>
-      <c r="M83" s="30"/>
-      <c r="N83" s="30"/>
-      <c r="O83" s="30"/>
-      <c r="P83" s="30"/>
-      <c r="Q83" s="31"/>
+      <c r="K83" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="L83" s="27"/>
+      <c r="M83" s="27"/>
+      <c r="N83" s="27"/>
+      <c r="O83" s="27"/>
+      <c r="P83" s="27"/>
+      <c r="Q83" s="28"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A84" s="26" t="s">
+      <c r="A84" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B84" s="27"/>
+      <c r="B84" s="26"/>
       <c r="C84" s="4" t="s">
         <v>133</v>
       </c>
@@ -11936,10 +11936,10 @@
       <c r="Q84" s="54"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A85" s="26" t="s">
+      <c r="A85" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B85" s="27"/>
+      <c r="B85" s="26"/>
       <c r="C85" s="3" t="s">
         <v>1</v>
       </c>
@@ -11963,63 +11963,63 @@
       <c r="Q85" s="57"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A86" s="42" t="s">
+      <c r="A86" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B86" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C86" s="42" t="s">
+      <c r="B86" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="46" t="s">
+      <c r="D86" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E86" s="47"/>
-      <c r="F86" s="47"/>
-      <c r="G86" s="48"/>
-      <c r="H86" s="46" t="s">
+      <c r="E86" s="33"/>
+      <c r="F86" s="33"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="I86" s="47"/>
-      <c r="J86" s="47"/>
-      <c r="K86" s="48"/>
-      <c r="L86" s="46" t="s">
+      <c r="I86" s="33"/>
+      <c r="J86" s="33"/>
+      <c r="K86" s="34"/>
+      <c r="L86" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="M86" s="47"/>
-      <c r="N86" s="47"/>
-      <c r="O86" s="48"/>
-      <c r="P86" s="40" t="s">
+      <c r="M86" s="33"/>
+      <c r="N86" s="33"/>
+      <c r="O86" s="34"/>
+      <c r="P86" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="Q86" s="42" t="s">
+      <c r="Q86" s="29" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A87" s="42"/>
-      <c r="B87" s="42"/>
-      <c r="C87" s="42"/>
-      <c r="D87" s="49"/>
-      <c r="E87" s="50"/>
-      <c r="F87" s="50"/>
-      <c r="G87" s="51"/>
-      <c r="H87" s="49"/>
-      <c r="I87" s="50"/>
-      <c r="J87" s="50"/>
-      <c r="K87" s="51"/>
-      <c r="L87" s="49"/>
-      <c r="M87" s="50"/>
-      <c r="N87" s="50"/>
-      <c r="O87" s="51"/>
-      <c r="P87" s="40"/>
-      <c r="Q87" s="42"/>
+      <c r="A87" s="29"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="35"/>
+      <c r="E87" s="36"/>
+      <c r="F87" s="36"/>
+      <c r="G87" s="37"/>
+      <c r="H87" s="35"/>
+      <c r="I87" s="36"/>
+      <c r="J87" s="36"/>
+      <c r="K87" s="37"/>
+      <c r="L87" s="35"/>
+      <c r="M87" s="36"/>
+      <c r="N87" s="36"/>
+      <c r="O87" s="37"/>
+      <c r="P87" s="38"/>
+      <c r="Q87" s="29"/>
     </row>
     <row r="88" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="43"/>
-      <c r="B88" s="43"/>
-      <c r="C88" s="44"/>
+      <c r="A88" s="30"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="31"/>
       <c r="D88" s="4" t="s">
         <v>17</v>
       </c>
@@ -12056,8 +12056,8 @@
       <c r="O88" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="P88" s="41"/>
-      <c r="Q88" s="43"/>
+      <c r="P88" s="39"/>
+      <c r="Q88" s="30"/>
     </row>
     <row r="89" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
@@ -12073,15 +12073,15 @@
         <v>20</v>
       </c>
       <c r="E89" s="3">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F89" s="5">
         <f>E89*100/D89</f>
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="G89" s="9">
         <f t="shared" ref="G89:G118" si="16">F89*0.7</f>
-        <v>38.5</v>
+        <v>66.5</v>
       </c>
       <c r="H89" s="8">
         <v>10</v>
@@ -12113,11 +12113,11 @@
       </c>
       <c r="P89" s="3">
         <f>G89+K89+O89</f>
-        <v>66.5</v>
+        <v>94.5</v>
       </c>
       <c r="Q89" s="3" t="str">
         <f>IF(P89&lt;70,"Uno",IF(P89&lt;78,"Dos",IF(P89&lt;86,"Tres",IF(P89&lt;94,"Cuatro","Cinco"))))</f>
-        <v>Uno</v>
+        <v>Cinco</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -12317,15 +12317,15 @@
         <v>20</v>
       </c>
       <c r="E93" s="3">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F93" s="5">
         <f t="shared" si="19"/>
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="G93" s="9">
         <f t="shared" si="16"/>
-        <v>35</v>
+        <v>59.499999999999993</v>
       </c>
       <c r="H93" s="8">
         <v>10</v>
@@ -12357,11 +12357,11 @@
       </c>
       <c r="P93" s="3">
         <f t="shared" si="22"/>
-        <v>65</v>
+        <v>89.5</v>
       </c>
       <c r="Q93" s="3" t="str">
         <f t="shared" si="23"/>
-        <v>Uno</v>
+        <v>Cuatro</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -13138,19 +13138,19 @@
         <v>5</v>
       </c>
       <c r="M106" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N106" s="5">
         <f t="shared" si="28"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O106" s="9">
         <f t="shared" si="29"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P106" s="3">
         <f t="shared" si="30"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q106" s="3" t="str">
         <f t="shared" si="31"/>
@@ -13659,29 +13659,29 @@
         <v>20</v>
       </c>
       <c r="E115" s="3">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F115" s="5">
         <f t="shared" si="19"/>
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="G115" s="9">
         <f t="shared" si="16"/>
-        <v>38.5</v>
+        <v>59.499999999999993</v>
       </c>
       <c r="H115" s="8">
         <v>10</v>
       </c>
       <c r="I115" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J115" s="5">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K115" s="9">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L115" s="8">
         <v>5</v>
@@ -13699,11 +13699,11 @@
       </c>
       <c r="P115" s="3">
         <f t="shared" si="22"/>
-        <v>48.5</v>
+        <v>81.5</v>
       </c>
       <c r="Q115" s="3" t="str">
         <f t="shared" si="23"/>
-        <v>Uno</v>
+        <v>Tres</v>
       </c>
     </row>
     <row r="116" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -14029,6 +14029,52 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="C74:P76"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="D50:G51"/>
+    <mergeCell ref="H50:K51"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="E48:Q48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="F49:Q49"/>
+    <mergeCell ref="L50:O51"/>
+    <mergeCell ref="P50:P52"/>
+    <mergeCell ref="Q50:Q52"/>
+    <mergeCell ref="C34:P36"/>
+    <mergeCell ref="A44:Q45"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:K46"/>
+    <mergeCell ref="L46:Q46"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:Q8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:Q9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:G11"/>
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="L10:O11"/>
+    <mergeCell ref="P10:P12"/>
+    <mergeCell ref="Q10:Q12"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A4:Q5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:K82"/>
+    <mergeCell ref="L82:Q82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="D83:E83"/>
     <mergeCell ref="C120:P122"/>
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="E84:Q84"/>
@@ -14042,52 +14088,6 @@
     <mergeCell ref="P86:P88"/>
     <mergeCell ref="Q86:Q88"/>
     <mergeCell ref="E85:Q85"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:K82"/>
-    <mergeCell ref="L82:Q82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="K83:Q83"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A4:Q5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:Q8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:Q9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:G11"/>
-    <mergeCell ref="H10:K11"/>
-    <mergeCell ref="L10:O11"/>
-    <mergeCell ref="P10:P12"/>
-    <mergeCell ref="Q10:Q12"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="C34:P36"/>
-    <mergeCell ref="A44:Q45"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="K47:Q47"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:K46"/>
-    <mergeCell ref="L46:Q46"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="E48:Q48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="F49:Q49"/>
-    <mergeCell ref="L50:O51"/>
-    <mergeCell ref="P50:P52"/>
-    <mergeCell ref="Q50:Q52"/>
-    <mergeCell ref="C74:P76"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="D50:G51"/>
-    <mergeCell ref="H50:K51"/>
   </mergeCells>
   <conditionalFormatting sqref="Q89:Q116">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
@@ -14174,78 +14174,78 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28" t="s">
+      <c r="A6" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="31"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="28"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="27"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="33"/>
+      <c r="E7" s="51"/>
       <c r="F7" s="3" t="s">
         <v>1</v>
       </c>
@@ -14261,128 +14261,128 @@
       <c r="J7" s="3">
         <v>2022</v>
       </c>
-      <c r="K7" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="31"/>
+      <c r="K7" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="28"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="27"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="4" t="s">
         <v>130</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="31"/>
+      <c r="E8" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="28"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="27"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="31"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="28"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="42" t="s">
+      <c r="B10" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="46" t="s">
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="46" t="s">
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="40" t="s">
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="Q10" s="42" t="s">
+      <c r="Q10" s="29" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="42"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="29"/>
     </row>
     <row r="12" spans="1:17" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="44"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="4" t="s">
         <v>17</v>
       </c>
@@ -14419,8 +14419,8 @@
       <c r="O12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="43"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="30"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
@@ -15745,78 +15745,78 @@
       <c r="Q44" s="1"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="24"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="24"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="24"/>
-      <c r="P45" s="24"/>
-      <c r="Q45" s="24"/>
+      <c r="A45" s="48"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="48"/>
+      <c r="M45" s="48"/>
+      <c r="N45" s="48"/>
+      <c r="O45" s="48"/>
+      <c r="P45" s="48"/>
+      <c r="Q45" s="48"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="25"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="25"/>
-      <c r="O46" s="25"/>
-      <c r="P46" s="25"/>
-      <c r="Q46" s="25"/>
+      <c r="A46" s="49"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="49"/>
+      <c r="M46" s="49"/>
+      <c r="N46" s="49"/>
+      <c r="O46" s="49"/>
+      <c r="P46" s="49"/>
+      <c r="Q46" s="49"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="27"/>
-      <c r="C47" s="28" t="s">
+      <c r="A47" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="26"/>
+      <c r="C47" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="30"/>
-      <c r="N47" s="30"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="31"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="27"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="28"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="26" t="s">
+      <c r="A48" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B48" s="27"/>
+      <c r="B48" s="26"/>
       <c r="C48" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D48" s="32" t="s">
+      <c r="D48" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E48" s="33"/>
+      <c r="E48" s="51"/>
       <c r="F48" s="3" t="s">
         <v>1</v>
       </c>
@@ -15832,128 +15832,128 @@
       <c r="J48" s="3">
         <v>2022</v>
       </c>
-      <c r="K48" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="31"/>
+      <c r="K48" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="27"/>
+      <c r="P48" s="27"/>
+      <c r="Q48" s="28"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="27"/>
+      <c r="B49" s="26"/>
       <c r="C49" s="4" t="s">
         <v>131</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E49" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="30"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="31"/>
+      <c r="E49" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="28"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="26" t="s">
+      <c r="A50" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="27"/>
+      <c r="B50" s="26"/>
       <c r="C50" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D50" s="32" t="s">
+      <c r="D50" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="33"/>
-      <c r="F50" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="30"/>
-      <c r="Q50" s="31"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="27"/>
+      <c r="O50" s="27"/>
+      <c r="P50" s="27"/>
+      <c r="Q50" s="28"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="42" t="s">
+      <c r="A51" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B51" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="42" t="s">
+      <c r="B51" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="46" t="s">
+      <c r="D51" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="46" t="s">
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="47"/>
-      <c r="J51" s="47"/>
-      <c r="K51" s="48"/>
-      <c r="L51" s="46" t="s">
+      <c r="I51" s="33"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="M51" s="47"/>
-      <c r="N51" s="47"/>
-      <c r="O51" s="48"/>
-      <c r="P51" s="40" t="s">
+      <c r="M51" s="33"/>
+      <c r="N51" s="33"/>
+      <c r="O51" s="34"/>
+      <c r="P51" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="Q51" s="42" t="s">
+      <c r="Q51" s="29" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="50"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="51"/>
-      <c r="L52" s="49"/>
-      <c r="M52" s="50"/>
-      <c r="N52" s="50"/>
-      <c r="O52" s="51"/>
-      <c r="P52" s="40"/>
-      <c r="Q52" s="42"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="35"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="36"/>
+      <c r="O52" s="37"/>
+      <c r="P52" s="38"/>
+      <c r="Q52" s="29"/>
     </row>
     <row r="53" spans="1:17" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="43"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="44"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="31"/>
       <c r="D53" s="4" t="s">
         <v>17</v>
       </c>
@@ -15990,8 +15990,8 @@
       <c r="O53" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="P53" s="41"/>
-      <c r="Q53" s="43"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="30"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
@@ -17316,78 +17316,78 @@
       <c r="Q85" s="1"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A86" s="24"/>
-      <c r="B86" s="24"/>
-      <c r="C86" s="24"/>
-      <c r="D86" s="24"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="24"/>
-      <c r="H86" s="24"/>
-      <c r="I86" s="24"/>
-      <c r="J86" s="24"/>
-      <c r="K86" s="24"/>
-      <c r="L86" s="24"/>
-      <c r="M86" s="24"/>
-      <c r="N86" s="24"/>
-      <c r="O86" s="24"/>
-      <c r="P86" s="24"/>
-      <c r="Q86" s="24"/>
+      <c r="A86" s="48"/>
+      <c r="B86" s="48"/>
+      <c r="C86" s="48"/>
+      <c r="D86" s="48"/>
+      <c r="E86" s="48"/>
+      <c r="F86" s="48"/>
+      <c r="G86" s="48"/>
+      <c r="H86" s="48"/>
+      <c r="I86" s="48"/>
+      <c r="J86" s="48"/>
+      <c r="K86" s="48"/>
+      <c r="L86" s="48"/>
+      <c r="M86" s="48"/>
+      <c r="N86" s="48"/>
+      <c r="O86" s="48"/>
+      <c r="P86" s="48"/>
+      <c r="Q86" s="48"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A87" s="25"/>
-      <c r="B87" s="25"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="25"/>
-      <c r="K87" s="25"/>
-      <c r="L87" s="25"/>
-      <c r="M87" s="25"/>
-      <c r="N87" s="25"/>
-      <c r="O87" s="25"/>
-      <c r="P87" s="25"/>
-      <c r="Q87" s="25"/>
+      <c r="A87" s="49"/>
+      <c r="B87" s="49"/>
+      <c r="C87" s="49"/>
+      <c r="D87" s="49"/>
+      <c r="E87" s="49"/>
+      <c r="F87" s="49"/>
+      <c r="G87" s="49"/>
+      <c r="H87" s="49"/>
+      <c r="I87" s="49"/>
+      <c r="J87" s="49"/>
+      <c r="K87" s="49"/>
+      <c r="L87" s="49"/>
+      <c r="M87" s="49"/>
+      <c r="N87" s="49"/>
+      <c r="O87" s="49"/>
+      <c r="P87" s="49"/>
+      <c r="Q87" s="49"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A88" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B88" s="27"/>
-      <c r="C88" s="28" t="s">
+      <c r="A88" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="26"/>
+      <c r="C88" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="D88" s="28"/>
-      <c r="E88" s="28"/>
-      <c r="F88" s="28"/>
-      <c r="G88" s="28"/>
-      <c r="H88" s="28"/>
-      <c r="I88" s="28"/>
-      <c r="J88" s="28"/>
-      <c r="K88" s="29"/>
-      <c r="L88" s="30"/>
-      <c r="M88" s="30"/>
-      <c r="N88" s="30"/>
-      <c r="O88" s="30"/>
-      <c r="P88" s="30"/>
-      <c r="Q88" s="31"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="40"/>
+      <c r="F88" s="40"/>
+      <c r="G88" s="40"/>
+      <c r="H88" s="40"/>
+      <c r="I88" s="40"/>
+      <c r="J88" s="40"/>
+      <c r="K88" s="41"/>
+      <c r="L88" s="27"/>
+      <c r="M88" s="27"/>
+      <c r="N88" s="27"/>
+      <c r="O88" s="27"/>
+      <c r="P88" s="27"/>
+      <c r="Q88" s="28"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A89" s="26" t="s">
+      <c r="A89" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B89" s="27"/>
+      <c r="B89" s="26"/>
       <c r="C89" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D89" s="32" t="s">
+      <c r="D89" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E89" s="33"/>
+      <c r="E89" s="51"/>
       <c r="F89" s="3" t="s">
         <v>1</v>
       </c>
@@ -17403,128 +17403,128 @@
       <c r="J89" s="3">
         <v>2022</v>
       </c>
-      <c r="K89" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="L89" s="30"/>
-      <c r="M89" s="30"/>
-      <c r="N89" s="30"/>
-      <c r="O89" s="30"/>
-      <c r="P89" s="30"/>
-      <c r="Q89" s="31"/>
+      <c r="K89" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="L89" s="27"/>
+      <c r="M89" s="27"/>
+      <c r="N89" s="27"/>
+      <c r="O89" s="27"/>
+      <c r="P89" s="27"/>
+      <c r="Q89" s="28"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A90" s="26" t="s">
+      <c r="A90" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B90" s="27"/>
+      <c r="B90" s="26"/>
       <c r="C90" s="4" t="s">
         <v>131</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E90" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F90" s="30"/>
-      <c r="G90" s="30"/>
-      <c r="H90" s="30"/>
-      <c r="I90" s="30"/>
-      <c r="J90" s="30"/>
-      <c r="K90" s="30"/>
-      <c r="L90" s="30"/>
-      <c r="M90" s="30"/>
-      <c r="N90" s="30"/>
-      <c r="O90" s="30"/>
-      <c r="P90" s="30"/>
-      <c r="Q90" s="31"/>
+      <c r="E90" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F90" s="27"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="27"/>
+      <c r="I90" s="27"/>
+      <c r="J90" s="27"/>
+      <c r="K90" s="27"/>
+      <c r="L90" s="27"/>
+      <c r="M90" s="27"/>
+      <c r="N90" s="27"/>
+      <c r="O90" s="27"/>
+      <c r="P90" s="27"/>
+      <c r="Q90" s="28"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A91" s="26" t="s">
+      <c r="A91" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B91" s="27"/>
+      <c r="B91" s="26"/>
       <c r="C91" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D91" s="32" t="s">
+      <c r="D91" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="33"/>
-      <c r="F91" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="G91" s="30"/>
-      <c r="H91" s="30"/>
-      <c r="I91" s="30"/>
-      <c r="J91" s="30"/>
-      <c r="K91" s="30"/>
-      <c r="L91" s="30"/>
-      <c r="M91" s="30"/>
-      <c r="N91" s="30"/>
-      <c r="O91" s="30"/>
-      <c r="P91" s="30"/>
-      <c r="Q91" s="31"/>
+      <c r="E91" s="51"/>
+      <c r="F91" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G91" s="27"/>
+      <c r="H91" s="27"/>
+      <c r="I91" s="27"/>
+      <c r="J91" s="27"/>
+      <c r="K91" s="27"/>
+      <c r="L91" s="27"/>
+      <c r="M91" s="27"/>
+      <c r="N91" s="27"/>
+      <c r="O91" s="27"/>
+      <c r="P91" s="27"/>
+      <c r="Q91" s="28"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A92" s="42" t="s">
+      <c r="A92" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B92" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C92" s="42" t="s">
+      <c r="B92" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D92" s="46" t="s">
+      <c r="D92" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E92" s="47"/>
-      <c r="F92" s="47"/>
-      <c r="G92" s="48"/>
-      <c r="H92" s="46" t="s">
+      <c r="E92" s="33"/>
+      <c r="F92" s="33"/>
+      <c r="G92" s="34"/>
+      <c r="H92" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="I92" s="47"/>
-      <c r="J92" s="47"/>
-      <c r="K92" s="48"/>
-      <c r="L92" s="46" t="s">
+      <c r="I92" s="33"/>
+      <c r="J92" s="33"/>
+      <c r="K92" s="34"/>
+      <c r="L92" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="M92" s="47"/>
-      <c r="N92" s="47"/>
-      <c r="O92" s="48"/>
-      <c r="P92" s="40" t="s">
+      <c r="M92" s="33"/>
+      <c r="N92" s="33"/>
+      <c r="O92" s="34"/>
+      <c r="P92" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="Q92" s="42" t="s">
+      <c r="Q92" s="29" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A93" s="42"/>
-      <c r="B93" s="42"/>
-      <c r="C93" s="42"/>
-      <c r="D93" s="49"/>
-      <c r="E93" s="50"/>
-      <c r="F93" s="50"/>
-      <c r="G93" s="51"/>
-      <c r="H93" s="49"/>
-      <c r="I93" s="50"/>
-      <c r="J93" s="50"/>
-      <c r="K93" s="51"/>
-      <c r="L93" s="49"/>
-      <c r="M93" s="50"/>
-      <c r="N93" s="50"/>
-      <c r="O93" s="51"/>
-      <c r="P93" s="40"/>
-      <c r="Q93" s="42"/>
+      <c r="A93" s="29"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="35"/>
+      <c r="E93" s="36"/>
+      <c r="F93" s="36"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="35"/>
+      <c r="I93" s="36"/>
+      <c r="J93" s="36"/>
+      <c r="K93" s="37"/>
+      <c r="L93" s="35"/>
+      <c r="M93" s="36"/>
+      <c r="N93" s="36"/>
+      <c r="O93" s="37"/>
+      <c r="P93" s="38"/>
+      <c r="Q93" s="29"/>
     </row>
     <row r="94" spans="1:17" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="43"/>
-      <c r="B94" s="43"/>
-      <c r="C94" s="44"/>
+      <c r="A94" s="30"/>
+      <c r="B94" s="30"/>
+      <c r="C94" s="31"/>
       <c r="D94" s="4" t="s">
         <v>17</v>
       </c>
@@ -17561,8 +17561,8 @@
       <c r="O94" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="P94" s="41"/>
-      <c r="Q94" s="43"/>
+      <c r="P94" s="39"/>
+      <c r="Q94" s="30"/>
     </row>
     <row r="95" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
@@ -18829,20 +18829,39 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="P92:P94"/>
-    <mergeCell ref="Q92:Q94"/>
-    <mergeCell ref="C116:P118"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="D92:G93"/>
-    <mergeCell ref="H92:K93"/>
-    <mergeCell ref="L92:O93"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="K89:Q89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="E90:Q90"/>
+    <mergeCell ref="A4:Q5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:Q8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:Q9"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:Q50"/>
+    <mergeCell ref="L10:O11"/>
+    <mergeCell ref="P10:P12"/>
+    <mergeCell ref="Q10:Q12"/>
+    <mergeCell ref="C34:P36"/>
+    <mergeCell ref="A45:Q46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:K47"/>
+    <mergeCell ref="L47:Q47"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:G11"/>
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="E49:Q49"/>
     <mergeCell ref="A91:B91"/>
     <mergeCell ref="D91:E91"/>
     <mergeCell ref="F91:Q91"/>
@@ -18859,39 +18878,20 @@
     <mergeCell ref="D51:G52"/>
     <mergeCell ref="H51:K52"/>
     <mergeCell ref="L51:O52"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="K48:Q48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="E49:Q49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:Q50"/>
-    <mergeCell ref="L10:O11"/>
-    <mergeCell ref="P10:P12"/>
-    <mergeCell ref="Q10:Q12"/>
-    <mergeCell ref="C34:P36"/>
-    <mergeCell ref="A45:Q46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:K47"/>
-    <mergeCell ref="L47:Q47"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:G11"/>
-    <mergeCell ref="H10:K11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:Q8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:Q9"/>
-    <mergeCell ref="A4:Q5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="E90:Q90"/>
+    <mergeCell ref="P92:P94"/>
+    <mergeCell ref="Q92:Q94"/>
+    <mergeCell ref="C116:P118"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="D92:G93"/>
+    <mergeCell ref="H92:K93"/>
+    <mergeCell ref="L92:O93"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
